--- a/results/GAIA__TESS_confirmed__matches__unique_stars.xlsx
+++ b/results/GAIA__TESS_confirmed__matches__unique_stars.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -447,7 +447,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="21" customWidth="1" min="1" max="1"/>
+    <col width="30" customWidth="1" min="1" max="1"/>
     <col width="21" customWidth="1" min="2" max="2"/>
     <col width="21" customWidth="1" min="3" max="3"/>
     <col width="19" customWidth="1" min="4" max="4"/>
@@ -458,7 +458,7 @@
     <col width="19" customWidth="1" min="9" max="9"/>
     <col width="20" customWidth="1" min="10" max="10"/>
     <col width="19" customWidth="1" min="11" max="11"/>
-    <col width="19" customWidth="1" min="12" max="12"/>
+    <col width="18" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="21" customWidth="1" min="14" max="14"/>
     <col width="16" customWidth="1" min="15" max="15"/>
@@ -468,8 +468,8 @@
     <col width="22" customWidth="1" min="19" max="19"/>
     <col width="11" customWidth="1" min="20" max="20"/>
     <col width="20" customWidth="1" min="21" max="21"/>
-    <col width="23" customWidth="1" min="22" max="22"/>
-    <col width="28" customWidth="1" min="23" max="23"/>
+    <col width="11" customWidth="1" min="22" max="22"/>
+    <col width="11" customWidth="1" min="23" max="23"/>
     <col width="12" customWidth="1" min="24" max="24"/>
     <col width="13" customWidth="1" min="25" max="25"/>
     <col width="26" customWidth="1" min="26" max="26"/>
@@ -634,7 +634,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>5164707970261890560</t>
+          <t>Gaia DR3 5164707970261890560</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -705,12 +705,12 @@
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>HD  22049</t>
+          <t>HD 22049</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>GJ 144.0, GJ 144</t>
+          <t>GJ 144.0</t>
         </is>
       </c>
       <c r="X2" t="n">
@@ -718,7 +718,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>BYDraV*</t>
+          <t>BY*</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -748,7 +748,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2452378776434477184</t>
+          <t>Gaia DR3 2452378776434477184</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -786,25 +786,25 @@
         <v>273.8097451185997</v>
       </c>
       <c r="L3" t="n">
-        <v>5420.00849935214</v>
+        <v>5420.00830078125</v>
       </c>
       <c r="M3" t="n">
         <v>0.8100000000000001</v>
       </c>
       <c r="N3" t="n">
-        <v>0.4528975560350175</v>
+        <v>0.4528975188732147</v>
       </c>
       <c r="O3" t="n">
         <v>0.914</v>
       </c>
       <c r="P3" t="n">
-        <v>0.9311760584035242</v>
+        <v>0.9311760332188102</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.03679153671820569</v>
+        <v>0.03679153318681573</v>
       </c>
       <c r="R3" t="n">
-        <v>0.3573654978875611</v>
+        <v>0.3573654587535743</v>
       </c>
       <c r="S3" t="n">
         <v>1.060831560138101</v>
@@ -816,12 +816,12 @@
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>HD  10700</t>
+          <t>HD 10700</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>GJ 71.0, GJ 71</t>
+          <t>GJ 71.0</t>
         </is>
       </c>
       <c r="X3" t="n">
@@ -829,12 +829,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>HighPM*</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>SIMBAD + empirical</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -848,7 +843,7 @@
         </is>
       </c>
       <c r="AC3" t="n">
-        <v>3.652170961142577</v>
+        <v>3.652170961142576</v>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
@@ -859,7 +854,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>6412595290592307840</t>
+          <t>Gaia DR3 6412595290592307840</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -935,7 +930,7 @@
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>GJ 845 A, GJ 845</t>
+          <t>GJ 845</t>
         </is>
       </c>
       <c r="X4" t="n">
@@ -943,7 +938,7 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -973,7 +968,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>4847957293278177024</t>
+          <t>Gaia DR3 4847957293278177024</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1044,7 +1039,7 @@
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>HD  20794</t>
+          <t>HD 20794</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
@@ -1057,7 +1052,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1087,7 +1082,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>3507879565090229888</t>
+          <t>Gaia DR3 3507879565090229888</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1125,7 +1120,7 @@
         <v>117.1726460991387</v>
       </c>
       <c r="L6" t="n">
-        <v>5571.858150027292</v>
+        <v>5571.85791015625</v>
       </c>
       <c r="M6" t="n">
         <v>0.89668727</v>
@@ -1137,13 +1132,13 @@
         <v>0.99628156</v>
       </c>
       <c r="P6" t="n">
-        <v>1.257840563829366</v>
+        <v>1.25784058498533</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.06146555734838024</v>
+        <v>0.06146555077289338</v>
       </c>
       <c r="R6" t="n">
-        <v>0.7300820152495111</v>
+        <v>0.7300819432861426</v>
       </c>
       <c r="S6" t="n">
         <v>0.906764956917385</v>
@@ -1168,7 +1163,7 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1198,7 +1193,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>6847167606385195648</t>
+          <t>Gaia DR3 6847167606385195648</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1282,7 +1277,7 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -1301,7 +1296,7 @@
         </is>
       </c>
       <c r="AC7" t="n">
-        <v>8.811567976359871</v>
+        <v>8.811567976359873</v>
       </c>
       <c r="AD7" t="inlineStr">
         <is>
@@ -1312,7 +1307,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>5381537023379295232</t>
+          <t>Gaia DR3 5381537023379295232</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1388,7 +1383,7 @@
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>GJ 442 A</t>
+          <t>GJ 442</t>
         </is>
       </c>
       <c r="X8" t="n">
@@ -1396,7 +1391,7 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
@@ -1426,7 +1421,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2802397960855105920</t>
+          <t>Gaia DR3 2802397960855105920</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1497,7 +1492,7 @@
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>HD   3651</t>
+          <t>HD 3651</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
@@ -1510,7 +1505,7 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
@@ -1540,7 +1535,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>4430238051199001216</t>
+          <t>Gaia DR3 4430238051199001216</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1578,7 +1573,7 @@
         <v>83.921443569609</v>
       </c>
       <c r="L10" t="n">
-        <v>5888.436294945624</v>
+        <v>5888.4365234375</v>
       </c>
       <c r="M10" t="n">
         <v>1.0560429</v>
@@ -1590,13 +1585,13 @@
         <v>1.3603567</v>
       </c>
       <c r="P10" t="n">
-        <v>1.923464869595713</v>
+        <v>1.923464839662253</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.06143092927529021</v>
+        <v>0.06143093467597092</v>
       </c>
       <c r="R10" t="n">
-        <v>0.9792117014799863</v>
+        <v>0.9792117799478079</v>
       </c>
       <c r="S10" t="n">
         <v>0.4194914960754469</v>
@@ -1616,7 +1611,7 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
@@ -1646,7 +1641,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>3936909723803146368</t>
+          <t>Gaia DR3 3936909723803146368</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1717,12 +1712,12 @@
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>HD 115404A, HD 115404</t>
+          <t>HD 115404</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>GJ 505 A</t>
+          <t>GJ 505</t>
         </is>
       </c>
       <c r="X11" t="n">
@@ -1730,7 +1725,7 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
@@ -1760,7 +1755,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>4937000898856156288</t>
+          <t>Gaia DR3 4937000898856156288</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1816,7 +1811,7 @@
         <v>0.1017640896016448</v>
       </c>
       <c r="R12" t="n">
-        <v>0.9971207000975293</v>
+        <v>0.9971207000975295</v>
       </c>
       <c r="S12" t="n">
         <v>2.202675635122268</v>
@@ -1831,12 +1826,12 @@
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>HD  13445</t>
+          <t>HD 13445</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>GJ 86 A, GJ 86</t>
+          <t>GJ 86</t>
         </is>
       </c>
       <c r="X12" t="n">
@@ -1844,7 +1839,7 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
@@ -1874,7 +1869,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>5726982995343100928</t>
+          <t>Gaia DR3 5726982995343100928</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1945,7 +1940,7 @@
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>HD  69830</t>
+          <t>HD 69830</t>
         </is>
       </c>
       <c r="W13" t="inlineStr">
@@ -1958,7 +1953,7 @@
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
@@ -1988,7 +1983,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>704967037090946688</t>
+          <t>Gaia DR3 704967037090946688</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2059,12 +2054,12 @@
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>HD  75732</t>
+          <t>HD 75732</t>
         </is>
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>GJ 324 A</t>
+          <t>GJ 324</t>
         </is>
       </c>
       <c r="X14" t="n">
@@ -2072,12 +2067,7 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>HighPM*</t>
-        </is>
-      </c>
-      <c r="Z14" t="inlineStr">
-        <is>
-          <t>SIMBAD + empirical</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2102,7 +2092,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>5945941905576552064</t>
+          <t>Gaia DR3 5945941905576552064</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2178,7 +2168,7 @@
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>GJ 691.0, GJ 691</t>
+          <t>GJ 691.0</t>
         </is>
       </c>
       <c r="X15" t="n">
@@ -2186,7 +2176,7 @@
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
@@ -2216,7 +2206,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>6018047019138644480</t>
+          <t>Gaia DR3 6018047019138644480</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2292,7 +2282,7 @@
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>GJ 9559, GJ 620.1 A</t>
+          <t>GJ 9559</t>
         </is>
       </c>
       <c r="X16" t="n">
@@ -2300,7 +2290,7 @@
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
@@ -2330,7 +2320,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>6380214844952702848</t>
+          <t>Gaia DR3 6380214844952702848</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2368,7 +2358,7 @@
         <v>87.37235542781944</v>
       </c>
       <c r="L17" t="n">
-        <v>4720.63068215475</v>
+        <v>4720.630859375</v>
       </c>
       <c r="M17" t="n">
         <v>0.7474004</v>
@@ -2380,13 +2370,13 @@
         <v>0.7578372</v>
       </c>
       <c r="P17" t="n">
-        <v>0.7008996287748457</v>
+        <v>0.700899620508507</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.1441440461347837</v>
+        <v>0.1441440473915882</v>
       </c>
       <c r="R17" t="n">
-        <v>1.166831915167785</v>
+        <v>1.166831918460753</v>
       </c>
       <c r="S17" t="n">
         <v>1.717218532617633</v>
@@ -2411,7 +2401,7 @@
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
@@ -2441,7 +2431,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>3740176925743994752</t>
+          <t>Gaia DR3 3740176925743994752</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2479,7 +2469,7 @@
         <v>55.25105809943382</v>
       </c>
       <c r="L18" t="n">
-        <v>5470.158571882718</v>
+        <v>5470.15869140625</v>
       </c>
       <c r="M18" t="n">
         <v>1.1014463</v>
@@ -2491,13 +2481,13 @@
         <v>1.9086419</v>
       </c>
       <c r="P18" t="n">
-        <v>2.398506902791113</v>
+        <v>2.398506882620912</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.06571963380671264</v>
+        <v>0.06571963750101746</v>
       </c>
       <c r="R18" t="n">
-        <v>1.194686586706649</v>
+        <v>1.194686648840448</v>
       </c>
       <c r="S18" t="n">
         <v>0.1584126895994296</v>
@@ -2514,7 +2504,7 @@
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>GJ 9446, GJ 512.1</t>
+          <t>GJ 9446</t>
         </is>
       </c>
       <c r="X18" t="n">
@@ -2522,7 +2512,7 @@
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
@@ -2552,7 +2542,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2029433521248546304</t>
+          <t>Gaia DR3 2029433521248546304</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2628,7 +2618,7 @@
       </c>
       <c r="W19" t="inlineStr">
         <is>
-          <t>GJ 9683, GJ 777 A</t>
+          <t>GJ 9683</t>
         </is>
       </c>
       <c r="X19" t="n">
@@ -2636,12 +2626,7 @@
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>HighPM*</t>
-        </is>
-      </c>
-      <c r="Z19" t="inlineStr">
-        <is>
-          <t>SIMBAD + empirical</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -2666,7 +2651,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>5902750168276592256</t>
+          <t>Gaia DR3 5902750168276592256</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -2750,7 +2735,7 @@
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
@@ -2780,7 +2765,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>4758877919212831104</t>
+          <t>Gaia DR3 4758877919212831104</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -2848,7 +2833,7 @@
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>HD  40307</t>
+          <t>HD 40307</t>
         </is>
       </c>
       <c r="W21" t="inlineStr">
@@ -2861,7 +2846,7 @@
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z21" t="inlineStr">
@@ -2891,7 +2876,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2835207319109249920</t>
+          <t>Gaia DR3 2835207319109249920</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -2975,7 +2960,7 @@
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z22" t="inlineStr">
@@ -3005,7 +2990,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>6009538585839374336</t>
+          <t>Gaia DR3 6009538585839374336</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3081,7 +3066,7 @@
       </c>
       <c r="W23" t="inlineStr">
         <is>
-          <t>GJ 599 A</t>
+          <t>GJ 599</t>
         </is>
       </c>
       <c r="X23" t="n">
@@ -3089,7 +3074,7 @@
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z23" t="inlineStr">
@@ -3119,7 +3104,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>4247023886053586304</t>
+          <t>Gaia DR3 4247023886053586304</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3175,7 +3160,7 @@
         <v>0.1704168359562062</v>
       </c>
       <c r="R24" t="n">
-        <v>1.345624188533958</v>
+        <v>1.345624188533957</v>
       </c>
       <c r="S24" t="n">
         <v>2.04967100115046</v>
@@ -3203,7 +3188,7 @@
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>BYDraV*</t>
+          <t>BY*</t>
         </is>
       </c>
       <c r="Z24" t="inlineStr">
@@ -3233,7 +3218,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>5378886891123024512</t>
+          <t>Gaia DR3 5378886891123024512</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3314,12 +3299,7 @@
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>HighPM*</t>
-        </is>
-      </c>
-      <c r="Z25" t="inlineStr">
-        <is>
-          <t>SIMBAD + empirical</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -3344,7 +3324,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>3732539683617410816</t>
+          <t>Gaia DR3 3732539683617410816</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3420,7 +3400,7 @@
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>GJ 504</t>
+          <t>GJ 504A</t>
         </is>
       </c>
       <c r="X26" t="n">
@@ -3428,7 +3408,7 @@
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z26" t="inlineStr">
@@ -3458,7 +3438,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>4634528720388462592</t>
+          <t>Gaia DR3 4634528720388462592</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -3529,12 +3509,12 @@
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>HD   1237A, HD   1237</t>
+          <t>HD 1237</t>
         </is>
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>GJ 3021 A, GJ 3021</t>
+          <t>GJ 3021</t>
         </is>
       </c>
       <c r="X27" t="n">
@@ -3542,7 +3522,7 @@
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z27" t="inlineStr">
@@ -3572,7 +3552,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>6718894388002453120</t>
+          <t>Gaia DR3 6718894388002453120</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -3610,7 +3590,7 @@
         <v>58.98601112979235</v>
       </c>
       <c r="L28" t="n">
-        <v>5571.858150027292</v>
+        <v>5571.85791015625</v>
       </c>
       <c r="M28" t="n">
         <v>0.9714971</v>
@@ -3622,13 +3602,13 @@
         <v>0.95533544</v>
       </c>
       <c r="P28" t="n">
-        <v>1.262617003734303</v>
+        <v>1.262617024970603</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.1197528320292361</v>
+        <v>0.11975281921827</v>
       </c>
       <c r="R28" t="n">
-        <v>1.483369532004417</v>
+        <v>1.483369385790183</v>
       </c>
       <c r="S28" t="n">
         <v>1.114227419076153</v>
@@ -3648,7 +3628,7 @@
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z28" t="inlineStr">
@@ -3667,7 +3647,7 @@
         </is>
       </c>
       <c r="AC28" t="n">
-        <v>16.95317213092454</v>
+        <v>16.95317213092453</v>
       </c>
       <c r="AD28" t="inlineStr">
         <is>
@@ -3678,7 +3658,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>6029992663310612096</t>
+          <t>Gaia DR3 6029992663310612096</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -3762,12 +3742,7 @@
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>HighPM*</t>
-        </is>
-      </c>
-      <c r="Z29" t="inlineStr">
-        <is>
-          <t>SIMBAD + empirical</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
@@ -3792,7 +3767,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>1176209886733406592</t>
+          <t>Gaia DR3 1176209886733406592</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -3876,7 +3851,7 @@
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>BYDraV*</t>
+          <t>BY*</t>
         </is>
       </c>
       <c r="Z30" t="inlineStr">
@@ -3906,7 +3881,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>6427244702486210816</t>
+          <t>Gaia DR3 6427244702486210816</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -3990,7 +3965,7 @@
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z31" t="inlineStr">
@@ -4020,7 +3995,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>4623036865373793408</t>
+          <t>Gaia DR3 4623036865373793408</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -4073,10 +4048,10 @@
         <v>1.647763955697583</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.1085911731050551</v>
+        <v>0.1085911731050552</v>
       </c>
       <c r="R32" t="n">
-        <v>1.616889990960014</v>
+        <v>1.616889990960015</v>
       </c>
       <c r="S32" t="n">
         <v>0.7387211964130875</v>
@@ -4091,7 +4066,7 @@
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>HD  39091</t>
+          <t>HD 39091</t>
         </is>
       </c>
       <c r="W32" t="inlineStr">
@@ -4104,7 +4079,7 @@
       </c>
       <c r="Y32" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z32" t="inlineStr">
@@ -4134,7 +4109,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>4383374219923745024</t>
+          <t>Gaia DR3 4383374219923745024</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -4205,7 +4180,7 @@
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>HD 149806, HD 149806A</t>
+          <t>HD 149806</t>
         </is>
       </c>
       <c r="X33" t="n">
@@ -4213,7 +4188,7 @@
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z33" t="inlineStr">
@@ -4243,7 +4218,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2619706544757416192</t>
+          <t>Gaia DR3 2619706544757416192</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -4319,7 +4294,7 @@
       </c>
       <c r="W34" t="inlineStr">
         <is>
-          <t>GJ 9769, GJ 848.4</t>
+          <t>GJ 9769</t>
         </is>
       </c>
       <c r="X34" t="n">
@@ -4327,7 +4302,7 @@
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z34" t="inlineStr">
@@ -4357,7 +4332,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>1772187382746856320</t>
+          <t>Gaia DR3 1772187382746856320</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -4433,7 +4408,7 @@
       </c>
       <c r="W35" t="inlineStr">
         <is>
-          <t>GJ 9751, GJ 836.7</t>
+          <t>GJ 9751</t>
         </is>
       </c>
       <c r="X35" t="n">
@@ -4441,7 +4416,7 @@
       </c>
       <c r="Y35" t="inlineStr">
         <is>
-          <t>BYDraV*</t>
+          <t>BY*</t>
         </is>
       </c>
       <c r="Z35" t="inlineStr">
@@ -4471,7 +4446,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>4852870701505115904</t>
+          <t>Gaia DR3 4852870701505115904</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -4542,7 +4517,7 @@
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>HD  21175</t>
+          <t>HD 21175</t>
         </is>
       </c>
       <c r="W36" t="inlineStr">
@@ -4555,7 +4530,7 @@
       </c>
       <c r="Y36" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z36" t="inlineStr">
@@ -4585,7 +4560,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>3684934540986187776</t>
+          <t>Gaia DR3 3684934540986187776</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -4669,7 +4644,7 @@
       </c>
       <c r="Y37" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z37" t="inlineStr">
@@ -4699,7 +4674,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>1827242816201846144</t>
+          <t>Gaia DR3 1827242816201846144</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -4770,7 +4745,7 @@
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>HD 189733, HD 189733A</t>
+          <t>HD 189733</t>
         </is>
       </c>
       <c r="W38" t="inlineStr">
@@ -4783,7 +4758,7 @@
       </c>
       <c r="Y38" t="inlineStr">
         <is>
-          <t>BYDraV*</t>
+          <t>BY*</t>
         </is>
       </c>
       <c r="Z38" t="inlineStr">
@@ -4813,7 +4788,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2648914040357320576</t>
+          <t>Gaia DR3 2648914040357320576</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -4914,7 +4889,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>4673947174316727040</t>
+          <t>Gaia DR3 4673947174316727040</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -4967,7 +4942,7 @@
         <v>0.6687555258669828</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.2286520868473961</v>
+        <v>0.2286520868473962</v>
       </c>
       <c r="R40" t="n">
         <v>1.768355141422782</v>
@@ -4985,7 +4960,7 @@
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>HD  21749</t>
+          <t>HD 21749</t>
         </is>
       </c>
       <c r="W40" t="inlineStr">
@@ -4998,12 +4973,7 @@
       </c>
       <c r="Y40" t="inlineStr">
         <is>
-          <t>HighPM*</t>
-        </is>
-      </c>
-      <c r="Z40" t="inlineStr">
-        <is>
-          <t>SIMBAD + empirical</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
@@ -5028,7 +4998,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>5062172841616745856</t>
+          <t>Gaia DR3 5062172841616745856</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -5099,12 +5069,12 @@
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>HD  16417</t>
+          <t>HD 16417</t>
         </is>
       </c>
       <c r="W41" t="inlineStr">
         <is>
-          <t>GJ 9088, GJ 105.1</t>
+          <t>GJ 9088</t>
         </is>
       </c>
       <c r="X41" t="n">
@@ -5112,7 +5082,7 @@
       </c>
       <c r="Y41" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z41" t="inlineStr">
@@ -5142,7 +5112,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>4582680493669880704</t>
+          <t>Gaia DR3 4582680493669880704</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -5215,7 +5185,7 @@
       </c>
       <c r="W42" t="inlineStr">
         <is>
-          <t>GJ 9613, GJ 700.2</t>
+          <t>GJ 9613</t>
         </is>
       </c>
       <c r="X42" t="n">
@@ -5223,12 +5193,7 @@
       </c>
       <c r="Y42" t="inlineStr">
         <is>
-          <t>HighPM*</t>
-        </is>
-      </c>
-      <c r="Z42" t="inlineStr">
-        <is>
-          <t>SIMBAD + empirical</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="AA42" t="inlineStr">
@@ -5253,7 +5218,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>4224259562941398400</t>
+          <t>Gaia DR3 4224259562941398400</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -5332,7 +5297,7 @@
       </c>
       <c r="Y43" t="inlineStr">
         <is>
-          <t>BYDraV*</t>
+          <t>BY*</t>
         </is>
       </c>
       <c r="Z43" t="inlineStr">
@@ -5362,7 +5327,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>4708607629114652032</t>
+          <t>Gaia DR3 4708607629114652032</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -5433,12 +5398,12 @@
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>HD   4308</t>
+          <t>HD 4308</t>
         </is>
       </c>
       <c r="W44" t="inlineStr">
         <is>
-          <t>GJ 9028, GJ 31.5</t>
+          <t>GJ 9028</t>
         </is>
       </c>
       <c r="X44" t="n">
@@ -5446,7 +5411,7 @@
       </c>
       <c r="Y44" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z44" t="inlineStr">
@@ -5476,7 +5441,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>4745373133284418816</t>
+          <t>Gaia DR3 4745373133284418816</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -5547,7 +5512,7 @@
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>HD  17051</t>
+          <t>HD 17051</t>
         </is>
       </c>
       <c r="W45" t="inlineStr">
@@ -5560,7 +5525,7 @@
       </c>
       <c r="Y45" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z45" t="inlineStr">
@@ -5590,7 +5555,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>6489771832811810432</t>
+          <t>Gaia DR3 6489771832811810432</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -5669,7 +5634,7 @@
       </c>
       <c r="Y46" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z46" t="inlineStr">
@@ -5688,7 +5653,7 @@
         </is>
       </c>
       <c r="AC46" t="n">
-        <v>29.1970450713045</v>
+        <v>29.19704507130449</v>
       </c>
       <c r="AD46" t="inlineStr">
         <is>
@@ -5699,7 +5664,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>116037204451525376</t>
+          <t>Gaia DR3 116037204451525376</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -5770,12 +5735,12 @@
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>HD  18143, HD  18143A</t>
+          <t>HD 18143</t>
         </is>
       </c>
       <c r="W47" t="inlineStr">
         <is>
-          <t>GJ 9105 A, GJ 118.2 A</t>
+          <t>GJ 9105</t>
         </is>
       </c>
       <c r="X47" t="n">
@@ -5783,7 +5748,7 @@
       </c>
       <c r="Y47" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z47" t="inlineStr">
@@ -5813,7 +5778,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>6080301367488384896</t>
+          <t>Gaia DR3 6080301367488384896</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -5886,7 +5851,7 @@
       </c>
       <c r="W48" t="inlineStr">
         <is>
-          <t>GJ 9425, GJ 496.1</t>
+          <t>GJ 9425</t>
         </is>
       </c>
       <c r="X48" t="n">
@@ -5894,12 +5859,7 @@
       </c>
       <c r="Y48" t="inlineStr">
         <is>
-          <t>HighPM*</t>
-        </is>
-      </c>
-      <c r="Z48" t="inlineStr">
-        <is>
-          <t>SIMBAD + empirical</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="AA48" t="inlineStr">
@@ -5924,7 +5884,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>4833654227548585856</t>
+          <t>Gaia DR3 4833654227548585856</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -5992,7 +5952,7 @@
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>HD  22496</t>
+          <t>HD 22496</t>
         </is>
       </c>
       <c r="W49" t="inlineStr">
@@ -6005,12 +5965,7 @@
       </c>
       <c r="Y49" t="inlineStr">
         <is>
-          <t>HighPM*</t>
-        </is>
-      </c>
-      <c r="Z49" t="inlineStr">
-        <is>
-          <t>SIMBAD + empirical</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="AA49" t="inlineStr">
@@ -6035,7 +5990,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>3494677900774838144</t>
+          <t>Gaia DR3 3494677900774838144</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -6119,7 +6074,7 @@
       </c>
       <c r="Y50" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z50" t="inlineStr">
@@ -6149,7 +6104,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2430102808294101760</t>
+          <t>Gaia DR3 2430102808294101760</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -6215,12 +6170,12 @@
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>HD   1461</t>
+          <t>HD 1461</t>
         </is>
       </c>
       <c r="W51" t="inlineStr">
         <is>
-          <t>GJ 9009, GJ 16.1</t>
+          <t>GJ 9009</t>
         </is>
       </c>
       <c r="X51" t="n">
@@ -6228,7 +6183,7 @@
       </c>
       <c r="Y51" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z51" t="inlineStr">
@@ -6258,7 +6213,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>3188395880157173120</t>
+          <t>Gaia DR3 3188395880157173120</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -6329,7 +6284,7 @@
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>HD  30562</t>
+          <t>HD 30562</t>
         </is>
       </c>
       <c r="W52" t="inlineStr">
@@ -6342,7 +6297,7 @@
       </c>
       <c r="Y52" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z52" t="inlineStr">
@@ -6372,7 +6327,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>3997075206232885888</t>
+          <t>Gaia DR3 3997075206232885888</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -6443,7 +6398,7 @@
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>HD  97658</t>
+          <t>HD 97658</t>
         </is>
       </c>
       <c r="W53" t="inlineStr">
@@ -6456,7 +6411,7 @@
       </c>
       <c r="Y53" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z53" t="inlineStr">
@@ -6486,7 +6441,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2898239468873596800</t>
+          <t>Gaia DR3 2898239468873596800</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -6539,7 +6494,7 @@
         <v>1.439675535286827</v>
       </c>
       <c r="Q54" t="n">
-        <v>0.1437613628328931</v>
+        <v>0.1437613628328932</v>
       </c>
       <c r="R54" t="n">
         <v>1.958503786782426</v>
@@ -6557,7 +6512,7 @@
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>HD  45184</t>
+          <t>HD 45184</t>
         </is>
       </c>
       <c r="W54" t="inlineStr">
@@ -6570,7 +6525,7 @@
       </c>
       <c r="Y54" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z54" t="inlineStr">
@@ -6600,7 +6555,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>6508401923473282432</t>
+          <t>Gaia DR3 6508401923473282432</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -6681,12 +6636,7 @@
       </c>
       <c r="Y55" t="inlineStr">
         <is>
-          <t>HighPM*</t>
-        </is>
-      </c>
-      <c r="Z55" t="inlineStr">
-        <is>
-          <t>SIMBAD + empirical</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="AA55" t="inlineStr">
@@ -6711,7 +6661,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>6384510877400590336</t>
+          <t>Gaia DR3 6384510877400590336</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -6790,7 +6740,7 @@
       </c>
       <c r="Y56" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z56" t="inlineStr">
@@ -6820,7 +6770,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>5461620846141553024</t>
+          <t>Gaia DR3 5461620846141553024</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -6891,7 +6841,7 @@
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>HD  90156</t>
+          <t>HD 90156</t>
         </is>
       </c>
       <c r="W57" t="inlineStr">
@@ -6904,7 +6854,7 @@
       </c>
       <c r="Y57" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z57" t="inlineStr">
@@ -6934,7 +6884,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>6226694571859532800</t>
+          <t>Gaia DR3 6226694571859532800</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -7018,7 +6968,7 @@
       </c>
       <c r="Y58" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z58" t="inlineStr">
@@ -7048,7 +6998,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>3737308025029348608</t>
+          <t>Gaia DR3 3737308025029348608</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -7116,7 +7066,7 @@
       </c>
       <c r="W59" t="inlineStr">
         <is>
-          <t>GJ 494 B, GJ 494 A, GJ 494</t>
+          <t>GJ 494</t>
         </is>
       </c>
       <c r="X59" t="n">
@@ -7124,12 +7074,7 @@
       </c>
       <c r="Y59" t="inlineStr">
         <is>
-          <t>RSCVnV*</t>
-        </is>
-      </c>
-      <c r="Z59" t="inlineStr">
-        <is>
-          <t>SIMBAD + empirical</t>
+          <t>RS*</t>
         </is>
       </c>
       <c r="AA59" t="inlineStr">
@@ -7154,7 +7099,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2623505219992303104</t>
+          <t>Gaia DR3 2623505219992303104</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -7238,7 +7183,7 @@
       </c>
       <c r="Y60" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z60" t="inlineStr">
@@ -7268,7 +7213,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>875071278432954240</t>
+          <t>Gaia DR3 875071278432954240</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -7339,7 +7284,7 @@
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>HD  63433</t>
+          <t>HD 63433</t>
         </is>
       </c>
       <c r="X61" t="n">
@@ -7347,7 +7292,7 @@
       </c>
       <c r="Y61" t="inlineStr">
         <is>
-          <t>BYDraV*</t>
+          <t>MS*</t>
         </is>
       </c>
       <c r="Z61" t="inlineStr">
@@ -7377,7 +7322,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>5798962867668048768</t>
+          <t>Gaia DR3 5798962867668048768</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -7456,7 +7401,7 @@
       </c>
       <c r="Y62" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z62" t="inlineStr">
@@ -7486,7 +7431,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>5876112300125320448</t>
+          <t>Gaia DR3 5876112300125320448</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -7565,7 +7510,7 @@
       </c>
       <c r="Y63" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z63" t="inlineStr">
@@ -7584,7 +7529,7 @@
         </is>
       </c>
       <c r="AC63" t="n">
-        <v>24.02704996155894</v>
+        <v>24.02704996155895</v>
       </c>
       <c r="AD63" t="inlineStr">
         <is>
@@ -7595,7 +7540,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>6748283784056800384</t>
+          <t>Gaia DR3 6748283784056800384</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -7679,7 +7624,7 @@
       </c>
       <c r="Y64" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z64" t="inlineStr">
@@ -7709,7 +7654,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>5925209583053212800</t>
+          <t>Gaia DR3 5925209583053212800</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -7777,7 +7722,7 @@
       </c>
       <c r="W65" t="inlineStr">
         <is>
-          <t>GJ 676 A</t>
+          <t>GJ 676</t>
         </is>
       </c>
       <c r="X65" t="n">
@@ -7785,12 +7730,7 @@
       </c>
       <c r="Y65" t="inlineStr">
         <is>
-          <t>HighPM*</t>
-        </is>
-      </c>
-      <c r="Z65" t="inlineStr">
-        <is>
-          <t>SIMBAD + empirical</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="AA65" t="inlineStr">
@@ -7815,7 +7755,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>6353376831270492800</t>
+          <t>Gaia DR3 6353376831270492800</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -7899,7 +7839,7 @@
       </c>
       <c r="Y66" t="inlineStr">
         <is>
-          <t>Star</t>
+          <t>*</t>
         </is>
       </c>
       <c r="Z66" t="inlineStr">
@@ -7929,7 +7869,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>2462426800883134336</t>
+          <t>Gaia DR3 2462426800883134336</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -7997,12 +7937,12 @@
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>HD  11964A, HD  11964</t>
+          <t>HD 11964</t>
         </is>
       </c>
       <c r="W67" t="inlineStr">
         <is>
-          <t>GJ 9063 A, GJ 81.1 A</t>
+          <t>GJ 9063</t>
         </is>
       </c>
       <c r="X67" t="n">
@@ -8010,12 +7950,7 @@
       </c>
       <c r="Y67" t="inlineStr">
         <is>
-          <t>HighPM*</t>
-        </is>
-      </c>
-      <c r="Z67" t="inlineStr">
-        <is>
-          <t>SIMBAD + empirical</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="AA67" t="inlineStr">
@@ -8040,7 +7975,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>5452492082132835840</t>
+          <t>Gaia DR3 5452492082132835840</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -8111,12 +8046,12 @@
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>HD  96700</t>
+          <t>HD 96700</t>
         </is>
       </c>
       <c r="W68" t="inlineStr">
         <is>
-          <t>GJ 9346, GJ 412.2</t>
+          <t>GJ 9346</t>
         </is>
       </c>
       <c r="X68" t="n">
@@ -8124,7 +8059,7 @@
       </c>
       <c r="Y68" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z68" t="inlineStr">
@@ -8154,7 +8089,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>3319126988068404096</t>
+          <t>Gaia DR3 3319126988068404096</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -8225,7 +8160,7 @@
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>HD  42618</t>
+          <t>HD 42618</t>
         </is>
       </c>
       <c r="W69" t="inlineStr">
@@ -8238,7 +8173,7 @@
       </c>
       <c r="Y69" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z69" t="inlineStr">
@@ -8268,7 +8203,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>95652018353917056</t>
+          <t>Gaia DR3 95652018353917056</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -8339,7 +8274,7 @@
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>HD  10697</t>
+          <t>HD 10697</t>
         </is>
       </c>
       <c r="W70" t="inlineStr">
@@ -8352,7 +8287,7 @@
       </c>
       <c r="Y70" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z70" t="inlineStr">
@@ -8382,7 +8317,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>4657193606465368704</t>
+          <t>Gaia DR3 4657193606465368704</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -8453,12 +8388,12 @@
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>HD  39194</t>
+          <t>HD 39194</t>
         </is>
       </c>
       <c r="W71" t="inlineStr">
         <is>
-          <t>GJ 9191, GJ 217.2</t>
+          <t>GJ 9191</t>
         </is>
       </c>
       <c r="X71" t="n">
@@ -8466,7 +8401,7 @@
       </c>
       <c r="Y71" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z71" t="inlineStr">
@@ -8485,7 +8420,7 @@
         </is>
       </c>
       <c r="AC71" t="n">
-        <v>26.43860874095106</v>
+        <v>26.43860874095107</v>
       </c>
       <c r="AD71" t="inlineStr">
         <is>
@@ -8496,7 +8431,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>2966316109264052096</t>
+          <t>Gaia DR3 2966316109264052096</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -8564,7 +8499,7 @@
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>HD  39855</t>
+          <t>HD 39855</t>
         </is>
       </c>
       <c r="X72" t="n">
@@ -8572,7 +8507,7 @@
       </c>
       <c r="Y72" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z72" t="inlineStr">
@@ -8602,7 +8537,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>6356417496318028800</t>
+          <t>Gaia DR3 6356417496318028800</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -8711,7 +8646,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>4912580642524184960</t>
+          <t>Gaia DR3 4912580642524184960</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -8782,7 +8717,7 @@
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>HD  10647</t>
+          <t>HD 10647</t>
         </is>
       </c>
       <c r="W74" t="inlineStr">
@@ -8795,7 +8730,7 @@
       </c>
       <c r="Y74" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z74" t="inlineStr">
@@ -8825,7 +8760,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>6223838830917236224</t>
+          <t>Gaia DR3 6223838830917236224</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -8904,7 +8839,7 @@
       </c>
       <c r="Y75" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z75" t="inlineStr">
@@ -8934,7 +8869,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>6348288635054855680</t>
+          <t>Gaia DR3 6348288635054855680</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -9013,7 +8948,7 @@
       </c>
       <c r="Y76" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z76" t="inlineStr">
@@ -9032,7 +8967,7 @@
         </is>
       </c>
       <c r="AC76" t="n">
-        <v>24.35307217768575</v>
+        <v>24.35307217768576</v>
       </c>
       <c r="AD76" t="inlineStr">
         <is>
@@ -9043,7 +8978,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>4575374857376398976</t>
+          <t>Gaia DR3 4575374857376398976</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -9122,12 +9057,7 @@
       </c>
       <c r="Y77" t="inlineStr">
         <is>
-          <t>HighPM*</t>
-        </is>
-      </c>
-      <c r="Z77" t="inlineStr">
-        <is>
-          <t>SIMBAD + empirical</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="AA77" t="inlineStr">
@@ -9152,7 +9082,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>3009908378049913216</t>
+          <t>Gaia DR3 3009908378049913216</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -9223,7 +9153,7 @@
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>HD  35850</t>
+          <t>HD 35850</t>
         </is>
       </c>
       <c r="X78" t="n">
@@ -9231,7 +9161,7 @@
       </c>
       <c r="Y78" t="inlineStr">
         <is>
-          <t>RSCVnV*</t>
+          <t>RS*</t>
         </is>
       </c>
       <c r="Z78" t="inlineStr">
@@ -9261,7 +9191,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>2428162410789155328</t>
+          <t>Gaia DR3 2428162410789155328</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -9332,7 +9262,7 @@
       </c>
       <c r="W79" t="inlineStr">
         <is>
-          <t>GJ 1008.0, GJ 1008</t>
+          <t>GJ 1008.0</t>
         </is>
       </c>
       <c r="X79" t="n">
@@ -9340,7 +9270,7 @@
       </c>
       <c r="Y79" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>MS*</t>
         </is>
       </c>
       <c r="Z79" t="inlineStr">
@@ -9370,7 +9300,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>3721126409323324416</t>
+          <t>Gaia DR3 3721126409323324416</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -9449,7 +9379,7 @@
       </c>
       <c r="Y80" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z80" t="inlineStr">
@@ -9479,7 +9409,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>2511794495013074048</t>
+          <t>Gaia DR3 2511794495013074048</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -9550,7 +9480,7 @@
       </c>
       <c r="V81" t="inlineStr">
         <is>
-          <t>HD  12235</t>
+          <t>HD 12235</t>
         </is>
       </c>
       <c r="W81" t="inlineStr">
@@ -9563,7 +9493,7 @@
       </c>
       <c r="Y81" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z81" t="inlineStr">
@@ -9593,7 +9523,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>3799626935341796096</t>
+          <t>Gaia DR3 3799626935341796096</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -9672,7 +9602,7 @@
       </c>
       <c r="Y82" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z82" t="inlineStr">
@@ -9702,7 +9632,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>5450573881018549760</t>
+          <t>Gaia DR3 5450573881018549760</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -9773,7 +9703,7 @@
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>HD  93083</t>
+          <t>HD 93083</t>
         </is>
       </c>
       <c r="W83" t="inlineStr">
@@ -9786,7 +9716,7 @@
       </c>
       <c r="Y83" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z83" t="inlineStr">
@@ -9816,7 +9746,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>5691782130578684544</t>
+          <t>Gaia DR3 5691782130578684544</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -9887,7 +9817,7 @@
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>HD  82943</t>
+          <t>HD 82943</t>
         </is>
       </c>
       <c r="X84" t="n">
@@ -9895,7 +9825,7 @@
       </c>
       <c r="Y84" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z84" t="inlineStr">
@@ -9925,7 +9855,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>6515731817739456256</t>
+          <t>Gaia DR3 6515731817739456256</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -10009,7 +9939,7 @@
       </c>
       <c r="Y85" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z85" t="inlineStr">
@@ -10039,7 +9969,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>5801950515627094400</t>
+          <t>Gaia DR3 5801950515627094400</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -10115,7 +10045,7 @@
       </c>
       <c r="W86" t="inlineStr">
         <is>
-          <t>GJ 9589, GJ 667.1</t>
+          <t>GJ 9589</t>
         </is>
       </c>
       <c r="X86" t="n">
@@ -10123,7 +10053,7 @@
       </c>
       <c r="Y86" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z86" t="inlineStr">
@@ -10153,7 +10083,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>5540006949934104448</t>
+          <t>Gaia DR3 5540006949934104448</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -10224,7 +10154,7 @@
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>HD  70642</t>
+          <t>HD 70642</t>
         </is>
       </c>
       <c r="W87" t="inlineStr">
@@ -10237,7 +10167,7 @@
       </c>
       <c r="Y87" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z87" t="inlineStr">
@@ -10267,7 +10197,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>3131777319158581376</t>
+          <t>Gaia DR3 3131777319158581376</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -10338,7 +10268,7 @@
       </c>
       <c r="V88" t="inlineStr">
         <is>
-          <t>HD  46375, HD  46375A</t>
+          <t>HD 46375</t>
         </is>
       </c>
       <c r="X88" t="n">
@@ -10346,7 +10276,7 @@
       </c>
       <c r="Y88" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z88" t="inlineStr">
@@ -10376,7 +10306,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>741184091114529792</t>
+          <t>Gaia DR3 741184091114529792</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -10447,7 +10377,7 @@
       </c>
       <c r="V89" t="inlineStr">
         <is>
-          <t>HD  88986</t>
+          <t>HD 88986</t>
         </is>
       </c>
       <c r="X89" t="n">
@@ -10455,7 +10385,7 @@
       </c>
       <c r="Y89" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z89" t="inlineStr">
@@ -10485,7 +10415,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>4584639307993378432</t>
+          <t>Gaia DR3 4584639307993378432</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -10538,7 +10468,7 @@
         <v>1.368770985536755</v>
       </c>
       <c r="Q90" t="n">
-        <v>0.1914293157062491</v>
+        <v>0.1914293157062492</v>
       </c>
       <c r="R90" t="n">
         <v>2.464054086083536</v>
@@ -10564,7 +10494,7 @@
       </c>
       <c r="Y90" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z90" t="inlineStr">
@@ -10594,7 +10524,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>4743692151804240896</t>
+          <t>Gaia DR3 4743692151804240896</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -10665,7 +10595,7 @@
       </c>
       <c r="V91" t="inlineStr">
         <is>
-          <t>HD  13808</t>
+          <t>HD 13808</t>
         </is>
       </c>
       <c r="X91" t="n">
@@ -10673,7 +10603,7 @@
       </c>
       <c r="Y91" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z91" t="inlineStr">
@@ -10703,7 +10633,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>3977050728669174912</t>
+          <t>Gaia DR3 3977050728669174912</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -10769,12 +10699,12 @@
       </c>
       <c r="V92" t="inlineStr">
         <is>
-          <t>HD  98736</t>
+          <t>HD 98736</t>
         </is>
       </c>
       <c r="W92" t="inlineStr">
         <is>
-          <t>GJ 426 A</t>
+          <t>GJ 426</t>
         </is>
       </c>
       <c r="X92" t="n">
@@ -10782,7 +10712,7 @@
       </c>
       <c r="Y92" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z92" t="inlineStr">
@@ -10812,7 +10742,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>4199396753205879040</t>
+          <t>Gaia DR3 4199396753205879040</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -10891,7 +10821,7 @@
       </c>
       <c r="Y93" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z93" t="inlineStr">
@@ -10921,7 +10851,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>6166183842771027328</t>
+          <t>Gaia DR3 6166183842771027328</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -11000,7 +10930,7 @@
       </c>
       <c r="Y94" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z94" t="inlineStr">
@@ -11030,7 +10960,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>5855730584310531200</t>
+          <t>Gaia DR3 5855730584310531200</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -11109,7 +11039,7 @@
       </c>
       <c r="Y95" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z95" t="inlineStr">
@@ -11139,7 +11069,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>6830027182179257472</t>
+          <t>Gaia DR3 6830027182179257472</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -11218,7 +11148,7 @@
       </c>
       <c r="Y96" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z96" t="inlineStr">
@@ -11237,7 +11167,7 @@
         </is>
       </c>
       <c r="AC96" t="n">
-        <v>28.66728132126345</v>
+        <v>28.66728132126344</v>
       </c>
       <c r="AD96" t="inlineStr">
         <is>
@@ -11248,7 +11178,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>5524982093479504384</t>
+          <t>Gaia DR3 5524982093479504384</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -11319,7 +11249,7 @@
       </c>
       <c r="V97" t="inlineStr">
         <is>
-          <t>HD  75289</t>
+          <t>HD 75289</t>
         </is>
       </c>
       <c r="X97" t="n">
@@ -11327,7 +11257,7 @@
       </c>
       <c r="Y97" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z97" t="inlineStr">
@@ -11357,7 +11287,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>3552000252294347392</t>
+          <t>Gaia DR3 3552000252294347392</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -11431,7 +11361,7 @@
       </c>
       <c r="Y98" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z98" t="inlineStr">
@@ -11461,7 +11391,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>5056511692465250304</t>
+          <t>Gaia DR3 5056511692465250304</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -11499,7 +11429,7 @@
         <v>34.36379186540934</v>
       </c>
       <c r="L99" t="n">
-        <v>5470.158571882718</v>
+        <v>5470.15869140625</v>
       </c>
       <c r="M99" t="n">
         <v>0.82</v>
@@ -11511,13 +11441,13 @@
         <v>0.8016358</v>
       </c>
       <c r="P99" t="n">
-        <v>1.006568057719983</v>
+        <v>1.006568049255268</v>
       </c>
       <c r="Q99" t="n">
-        <v>0.2517968953196031</v>
+        <v>0.2517969094738889</v>
       </c>
       <c r="R99" t="n">
-        <v>2.558508701158122</v>
+        <v>2.558508834222602</v>
       </c>
       <c r="S99" t="n">
         <v>1.591778155555364</v>
@@ -11529,12 +11459,12 @@
       </c>
       <c r="V99" t="inlineStr">
         <is>
-          <t>HD  21411</t>
+          <t>HD 21411</t>
         </is>
       </c>
       <c r="W99" t="inlineStr">
         <is>
-          <t>GJ 9116, GJ 141.2</t>
+          <t>GJ 9116</t>
         </is>
       </c>
       <c r="X99" t="n">
@@ -11542,7 +11472,7 @@
       </c>
       <c r="Y99" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z99" t="inlineStr">
@@ -11572,7 +11502,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>5341787994441794176</t>
+          <t>Gaia DR3 5341787994441794176</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -11653,12 +11583,7 @@
       </c>
       <c r="Y100" t="inlineStr">
         <is>
-          <t>HighPM*</t>
-        </is>
-      </c>
-      <c r="Z100" t="inlineStr">
-        <is>
-          <t>SIMBAD + empirical</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="AA100" t="inlineStr">
@@ -11672,7 +11597,7 @@
         </is>
       </c>
       <c r="AC100" t="n">
-        <v>29.95679853602365</v>
+        <v>29.95679853602366</v>
       </c>
       <c r="AD100" t="inlineStr">
         <is>
@@ -11683,7 +11608,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>3101382419728401408</t>
+          <t>Gaia DR3 3101382419728401408</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -11754,7 +11679,7 @@
       </c>
       <c r="V101" t="inlineStr">
         <is>
-          <t>HD  52265</t>
+          <t>HD 52265</t>
         </is>
       </c>
       <c r="X101" t="n">
@@ -11762,7 +11687,7 @@
       </c>
       <c r="Y101" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z101" t="inlineStr">
@@ -11792,7 +11717,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>2638410646295370880</t>
+          <t>Gaia DR3 2638410646295370880</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -11876,7 +11801,7 @@
       </c>
       <c r="Y102" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z102" t="inlineStr">
@@ -11906,7 +11831,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>581100382135253760</t>
+          <t>Gaia DR3 581100382135253760</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -11977,7 +11902,7 @@
       </c>
       <c r="V103" t="inlineStr">
         <is>
-          <t>HD  75302</t>
+          <t>HD 75302</t>
         </is>
       </c>
       <c r="X103" t="n">
@@ -11985,7 +11910,7 @@
       </c>
       <c r="Y103" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z103" t="inlineStr">
@@ -12015,7 +11940,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>3492633633781166336</t>
+          <t>Gaia DR3 3492633633781166336</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -12094,7 +12019,7 @@
       </c>
       <c r="Y104" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z104" t="inlineStr">
@@ -12124,7 +12049,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>4157584215800708736</t>
+          <t>Gaia DR3 4157584215800708736</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -12208,7 +12133,7 @@
       </c>
       <c r="Y105" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z105" t="inlineStr">
@@ -12238,7 +12163,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>577602496345490176</t>
+          <t>Gaia DR3 577602496345490176</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -12317,7 +12242,7 @@
       </c>
       <c r="Y106" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z106" t="inlineStr">
@@ -12347,7 +12272,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>3784271568265259904</t>
+          <t>Gaia DR3 3784271568265259904</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -12418,7 +12343,7 @@
       </c>
       <c r="V107" t="inlineStr">
         <is>
-          <t>HD  97037</t>
+          <t>HD 97037</t>
         </is>
       </c>
       <c r="X107" t="n">
@@ -12426,7 +12351,7 @@
       </c>
       <c r="Y107" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z107" t="inlineStr">
@@ -12456,7 +12381,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>6166971574132849792</t>
+          <t>Gaia DR3 6166971574132849792</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -12535,7 +12460,7 @@
       </c>
       <c r="Y108" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z108" t="inlineStr">
@@ -12565,7 +12490,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>3402798414192387328</t>
+          <t>Gaia DR3 3402798414192387328</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -12636,7 +12561,7 @@
       </c>
       <c r="V109" t="inlineStr">
         <is>
-          <t>HD  37124</t>
+          <t>HD 37124</t>
         </is>
       </c>
       <c r="W109" t="inlineStr">
@@ -12649,7 +12574,7 @@
       </c>
       <c r="Y109" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z109" t="inlineStr">
@@ -12679,7 +12604,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>5091077112524265344</t>
+          <t>Gaia DR3 5091077112524265344</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -12747,7 +12672,7 @@
       </c>
       <c r="W110" t="inlineStr">
         <is>
-          <t>GJ 9144, GJ 160.2</t>
+          <t>GJ 9144</t>
         </is>
       </c>
       <c r="X110" t="n">
@@ -12755,12 +12680,7 @@
       </c>
       <c r="Y110" t="inlineStr">
         <is>
-          <t>HighPM*</t>
-        </is>
-      </c>
-      <c r="Z110" t="inlineStr">
-        <is>
-          <t>SIMBAD + empirical</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="AA110" t="inlineStr">
@@ -12785,7 +12705,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>2473055951588089088</t>
+          <t>Gaia DR3 2473055951588089088</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -12861,12 +12781,7 @@
       </c>
       <c r="Y111" t="inlineStr">
         <is>
-          <t>HighPM*</t>
-        </is>
-      </c>
-      <c r="Z111" t="inlineStr">
-        <is>
-          <t>SIMBAD + empirical</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="AA111" t="inlineStr">
@@ -12891,7 +12806,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>2495335115182966016</t>
+          <t>Gaia DR3 2495335115182966016</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -12962,7 +12877,7 @@
       </c>
       <c r="V112" t="inlineStr">
         <is>
-          <t>HD  16141</t>
+          <t>HD 16141</t>
         </is>
       </c>
       <c r="W112" t="inlineStr">
@@ -12975,7 +12890,7 @@
       </c>
       <c r="Y112" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z112" t="inlineStr">
@@ -12994,7 +12909,7 @@
         </is>
       </c>
       <c r="AC112" t="n">
-        <v>37.72770847073155</v>
+        <v>37.72770847073156</v>
       </c>
       <c r="AD112" t="inlineStr">
         <is>
@@ -13005,7 +12920,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>5768159705804908800</t>
+          <t>Gaia DR3 5768159705804908800</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -13076,12 +12991,12 @@
       </c>
       <c r="V113" t="inlineStr">
         <is>
-          <t>HD 142022, HD 142022A</t>
+          <t>HD 142022</t>
         </is>
       </c>
       <c r="W113" t="inlineStr">
         <is>
-          <t>GJ 9536 A, GJ 606.1 A</t>
+          <t>GJ 9536</t>
         </is>
       </c>
       <c r="X113" t="n">
@@ -13089,7 +13004,7 @@
       </c>
       <c r="Y113" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z113" t="inlineStr">
@@ -13119,7 +13034,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>3802549437248150656</t>
+          <t>Gaia DR3 3802549437248150656</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -13190,7 +13105,7 @@
       </c>
       <c r="V114" t="inlineStr">
         <is>
-          <t>HD  92788</t>
+          <t>HD 92788</t>
         </is>
       </c>
       <c r="X114" t="n">
@@ -13198,7 +13113,7 @@
       </c>
       <c r="Y114" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z114" t="inlineStr">
@@ -13228,7 +13143,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>3948424496764080640</t>
+          <t>Gaia DR3 3948424496764080640</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -13304,7 +13219,7 @@
       </c>
       <c r="Y115" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z115" t="inlineStr">
@@ -13334,7 +13249,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>1815418118373631360</t>
+          <t>Gaia DR3 1815418118373631360</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -13413,7 +13328,7 @@
       </c>
       <c r="Y116" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z116" t="inlineStr">
@@ -13443,7 +13358,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>6781117812601143168</t>
+          <t>Gaia DR3 6781117812601143168</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -13524,12 +13439,7 @@
       </c>
       <c r="Y117" t="inlineStr">
         <is>
-          <t>HighPM*</t>
-        </is>
-      </c>
-      <c r="Z117" t="inlineStr">
-        <is>
-          <t>SIMBAD + empirical</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="AA117" t="inlineStr">
@@ -13554,7 +13464,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>6180035765135232128</t>
+          <t>Gaia DR3 6180035765135232128</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -13633,7 +13543,7 @@
       </c>
       <c r="Y118" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z118" t="inlineStr">
@@ -13663,7 +13573,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>3650718804281798912</t>
+          <t>Gaia DR3 3650718804281798912</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -13742,7 +13652,7 @@
       </c>
       <c r="Y119" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z119" t="inlineStr">
@@ -13761,7 +13671,7 @@
         </is>
       </c>
       <c r="AC119" t="n">
-        <v>31.91256875549758</v>
+        <v>31.91256875549757</v>
       </c>
       <c r="AD119" t="inlineStr">
         <is>
@@ -13772,7 +13682,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>3022099969137163904</t>
+          <t>Gaia DR3 3022099969137163904</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -13848,12 +13758,7 @@
       </c>
       <c r="Y120" t="inlineStr">
         <is>
-          <t>HighPM*</t>
-        </is>
-      </c>
-      <c r="Z120" t="inlineStr">
-        <is>
-          <t>SIMBAD + empirical</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="AA120" t="inlineStr">
@@ -13878,7 +13783,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>5300239064919282816</t>
+          <t>Gaia DR3 5300239064919282816</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -13949,7 +13854,7 @@
       </c>
       <c r="V121" t="inlineStr">
         <is>
-          <t>HD  80883</t>
+          <t>HD 80883</t>
         </is>
       </c>
       <c r="X121" t="n">
@@ -13987,7 +13892,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>4729947569262040960</t>
+          <t>Gaia DR3 4729947569262040960</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -14058,7 +13963,7 @@
       </c>
       <c r="V122" t="inlineStr">
         <is>
-          <t>HD  21693</t>
+          <t>HD 21693</t>
         </is>
       </c>
       <c r="X122" t="n">
@@ -14066,7 +13971,7 @@
       </c>
       <c r="Y122" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z122" t="inlineStr">
@@ -14096,7 +14001,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>5060105897197110144</t>
+          <t>Gaia DR3 5060105897197110144</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -14167,7 +14072,7 @@
       </c>
       <c r="V123" t="inlineStr">
         <is>
-          <t>HD  20781</t>
+          <t>HD 20781</t>
         </is>
       </c>
       <c r="X123" t="n">
@@ -14175,7 +14080,7 @@
       </c>
       <c r="Y123" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z123" t="inlineStr">
@@ -14194,7 +14099,7 @@
         </is>
       </c>
       <c r="AC123" t="n">
-        <v>35.95528493702557</v>
+        <v>35.95528493702558</v>
       </c>
       <c r="AD123" t="inlineStr">
         <is>
@@ -14205,314 +14110,309 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>2501948402746099456</t>
+          <t>Gaia DR3 3584074376569429248</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>2501948402746099456</t>
+          <t>3584074376569429248</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>2501948402746099456</t>
+          <t>3584074376569429248</t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>40.17990022710249</v>
+        <v>183.77623465615</v>
       </c>
       <c r="E124" t="n">
-        <v>1.199707844211168</v>
+        <v>-7.257548416243316</v>
       </c>
       <c r="F124" t="n">
-        <v>9.488922886848449</v>
+        <v>7.788455963134766</v>
       </c>
       <c r="G124" t="n">
-        <v>9.037830352783203</v>
+        <v>7.788455963134766</v>
       </c>
       <c r="H124" t="n">
-        <v>9.72831916809082</v>
+        <v>8.175284385681152</v>
       </c>
       <c r="I124" t="n">
-        <v>8.233892440795898</v>
+        <v>7.230326175689697</v>
       </c>
       <c r="J124" t="n">
-        <v>1.494426727294922</v>
+        <v>0.9449582099914551</v>
       </c>
       <c r="K124" t="n">
-        <v>41.82227864133286</v>
+        <v>29.3148219725564</v>
       </c>
       <c r="L124" t="n">
-        <v>4169.766</v>
+        <v>5292.9224</v>
       </c>
       <c r="M124" t="n">
-        <v>0.64</v>
+        <v>0.98</v>
       </c>
       <c r="N124" t="n">
-        <v>0.14841694</v>
+        <v>0.6728676</v>
       </c>
       <c r="O124" t="n">
-        <v>0.7567753</v>
+        <v>0.96187913</v>
       </c>
       <c r="P124" t="n">
-        <v>0.5792113444777749</v>
+        <v>1.145200477977139</v>
       </c>
       <c r="Q124" t="n">
-        <v>0.4170455027583157</v>
+        <v>0.2407350715753747</v>
       </c>
       <c r="R124" t="n">
-        <v>2.839885605748058</v>
+        <v>2.852338446201771</v>
       </c>
       <c r="S124" t="n">
-        <v>1.476655295751073</v>
+        <v>1.10119586004548</v>
       </c>
       <c r="T124" t="n">
-        <v>4.4871</v>
+        <v>4.4313</v>
       </c>
       <c r="U124" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="V124" t="inlineStr">
+        <is>
+          <t>HD 106515</t>
         </is>
       </c>
       <c r="W124" t="inlineStr">
         <is>
-          <t>GJ 9093, GJ 105.5</t>
+          <t>GJ 9398</t>
         </is>
       </c>
       <c r="X124" t="n">
-        <v>12493</v>
+        <v>59743</v>
       </c>
       <c r="Y124" t="inlineStr">
         <is>
-          <t>HighPM*</t>
-        </is>
-      </c>
-      <c r="Z124" t="inlineStr">
-        <is>
-          <t>SIMBAD + empirical</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="AA124" t="inlineStr">
         <is>
-          <t>K7V</t>
+          <t>G5V</t>
         </is>
       </c>
       <c r="AB124" t="inlineStr">
         <is>
-          <t>K7V</t>
+          <t>G5V</t>
         </is>
       </c>
       <c r="AC124" t="n">
-        <v>23.91070100641772</v>
+        <v>34.11243639603775</v>
       </c>
       <c r="AD124" t="inlineStr">
         <is>
-          <t>Dimmer</t>
+          <t>Dim</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>3584074376569429248</t>
+          <t>Gaia DR3 5036553052456200320</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>3584074376569429248</t>
+          <t>5036553052456200320</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>3584074376569429248</t>
+          <t>5036553052456200320</t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>183.77623465615</v>
+        <v>20.53143277534273</v>
       </c>
       <c r="E125" t="n">
-        <v>-7.257548416243316</v>
+        <v>-26.89409901678174</v>
       </c>
       <c r="F125" t="n">
-        <v>7.788455963134766</v>
+        <v>8.751291929597855</v>
       </c>
       <c r="G125" t="n">
-        <v>7.788455963134766</v>
+        <v>8.482131004333496</v>
       </c>
       <c r="H125" t="n">
-        <v>8.175284385681152</v>
+        <v>8.982284545898438</v>
       </c>
       <c r="I125" t="n">
-        <v>7.230326175689697</v>
+        <v>7.82548999786377</v>
       </c>
       <c r="J125" t="n">
-        <v>0.9449582099914551</v>
+        <v>1.156794548034668</v>
       </c>
       <c r="K125" t="n">
-        <v>29.3148219725564</v>
+        <v>32.56471150776688</v>
       </c>
       <c r="L125" t="n">
-        <v>5292.9224</v>
+        <v>4813.7305</v>
       </c>
       <c r="M125" t="n">
-        <v>0.98</v>
+        <v>0.8238238</v>
       </c>
       <c r="N125" t="n">
-        <v>0.6728676</v>
+        <v>0.30214342</v>
       </c>
       <c r="O125" t="n">
-        <v>0.96187913</v>
+        <v>0.7223141</v>
       </c>
       <c r="P125" t="n">
-        <v>1.145200477977139</v>
+        <v>0.7932869621801629</v>
       </c>
       <c r="Q125" t="n">
-        <v>0.2407350715753747</v>
+        <v>0.315530461906769</v>
       </c>
       <c r="R125" t="n">
-        <v>2.852338446201771</v>
+        <v>2.852869271097606</v>
       </c>
       <c r="S125" t="n">
-        <v>1.10119586004548</v>
+        <v>2.186029692156958</v>
       </c>
       <c r="T125" t="n">
-        <v>4.4313</v>
+        <v>4.5297</v>
       </c>
       <c r="U125" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>K</t>
         </is>
       </c>
       <c r="V125" t="inlineStr">
         <is>
-          <t>HD 106515, HD 106515A</t>
+          <t>HD 8326</t>
         </is>
       </c>
       <c r="W125" t="inlineStr">
         <is>
-          <t>GJ 9398 A</t>
+          <t>GJ 3091</t>
         </is>
       </c>
       <c r="X125" t="n">
-        <v>59743</v>
+        <v>6390</v>
       </c>
       <c r="Y125" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z125" t="inlineStr">
         <is>
-          <t>SIMBAD + empirical</t>
+          <t>GAIA</t>
         </is>
       </c>
       <c r="AA125" t="inlineStr">
         <is>
-          <t>G5V</t>
+          <t>K2V</t>
         </is>
       </c>
       <c r="AB125" t="inlineStr">
         <is>
-          <t>G5V</t>
+          <t>K2V</t>
         </is>
       </c>
       <c r="AC125" t="n">
-        <v>34.11243639603774</v>
+        <v>30.70808718085815</v>
       </c>
       <c r="AD125" t="inlineStr">
         <is>
-          <t>Dim</t>
+          <t>Dimmer</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>5036553052456200320</t>
+          <t>Gaia DR3 5488567574038257280</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>5036553052456200320</t>
+          <t>5488567574038257280</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>5036553052456200320</t>
+          <t>5488567574038257280</t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v>20.53143277534273</v>
+        <v>116.9582970992207</v>
       </c>
       <c r="E126" t="n">
-        <v>-26.89409901678174</v>
+        <v>-54.26538360731261</v>
       </c>
       <c r="F126" t="n">
-        <v>8.751291929597855</v>
+        <v>7.922089576721191</v>
       </c>
       <c r="G126" t="n">
-        <v>8.482131004333496</v>
+        <v>7.922089576721191</v>
       </c>
       <c r="H126" t="n">
-        <v>8.982284545898438</v>
+        <v>8.293935775756836</v>
       </c>
       <c r="I126" t="n">
-        <v>7.82548999786377</v>
+        <v>7.37880802154541</v>
       </c>
       <c r="J126" t="n">
-        <v>1.156794548034668</v>
+        <v>0.9151277542114258</v>
       </c>
       <c r="K126" t="n">
-        <v>32.56471150776688</v>
+        <v>30.75323644852065</v>
       </c>
       <c r="L126" t="n">
-        <v>4813.7305</v>
+        <v>5370.0527</v>
       </c>
       <c r="M126" t="n">
-        <v>0.8238238</v>
+        <v>0.9183199399999999</v>
       </c>
       <c r="N126" t="n">
-        <v>0.30214342</v>
+        <v>0.53427243</v>
       </c>
       <c r="O126" t="n">
-        <v>0.7223141</v>
+        <v>0.78954583</v>
       </c>
       <c r="P126" t="n">
-        <v>0.7932869621801629</v>
+        <v>1.014940981554307</v>
       </c>
       <c r="Q126" t="n">
-        <v>0.315530461906769</v>
+        <v>0.2662560523022507</v>
       </c>
       <c r="R126" t="n">
-        <v>2.852869271097606</v>
+        <v>2.87491445223856</v>
       </c>
       <c r="S126" t="n">
-        <v>2.186029692156958</v>
+        <v>1.865786653257043</v>
       </c>
       <c r="T126" t="n">
-        <v>4.5297</v>
+        <v>4.481</v>
       </c>
       <c r="U126" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>G</t>
         </is>
       </c>
       <c r="V126" t="inlineStr">
         <is>
-          <t>HD   8326</t>
-        </is>
-      </c>
-      <c r="W126" t="inlineStr">
-        <is>
-          <t>GJ 3091</t>
+          <t>HD 63765</t>
         </is>
       </c>
       <c r="X126" t="n">
-        <v>6390</v>
+        <v>38041</v>
       </c>
       <c r="Y126" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z126" t="inlineStr">
@@ -14522,89 +14422,89 @@
       </c>
       <c r="AA126" t="inlineStr">
         <is>
-          <t>K2V</t>
+          <t>G9V</t>
         </is>
       </c>
       <c r="AB126" t="inlineStr">
         <is>
-          <t>K2V</t>
+          <t>G9V</t>
         </is>
       </c>
       <c r="AC126" t="n">
-        <v>30.70808718085815</v>
+        <v>32.51690278757974</v>
       </c>
       <c r="AD126" t="inlineStr">
         <is>
-          <t>Dimmer</t>
+          <t>Dim</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>5488567574038257280</t>
+          <t>Gaia DR3 105332908999068032</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>5488567574038257280</t>
+          <t>105332908999068032</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>5488567574038257280</t>
+          <t>105332908999068032</t>
         </is>
       </c>
       <c r="D127" t="n">
-        <v>116.9582970992207</v>
+        <v>31.14233583808426</v>
       </c>
       <c r="E127" t="n">
-        <v>-54.26538360731261</v>
+        <v>25.41353914088439</v>
       </c>
       <c r="F127" t="n">
-        <v>7.922089576721191</v>
+        <v>7.262335777282715</v>
       </c>
       <c r="G127" t="n">
-        <v>7.922089576721191</v>
+        <v>7.262335777282715</v>
       </c>
       <c r="H127" t="n">
-        <v>8.293935775756836</v>
+        <v>7.608210563659668</v>
       </c>
       <c r="I127" t="n">
-        <v>7.37880802154541</v>
+        <v>6.749390602111816</v>
       </c>
       <c r="J127" t="n">
-        <v>0.9151277542114258</v>
+        <v>0.8588199615478516</v>
       </c>
       <c r="K127" t="n">
-        <v>30.75323644852065</v>
+        <v>26.46141230655851</v>
       </c>
       <c r="L127" t="n">
-        <v>5370.0527</v>
+        <v>5551.7886</v>
       </c>
       <c r="M127" t="n">
-        <v>0.9183199399999999</v>
+        <v>0.9306214</v>
       </c>
       <c r="N127" t="n">
-        <v>0.53427243</v>
+        <v>1.2820382</v>
       </c>
       <c r="O127" t="n">
-        <v>0.78954583</v>
+        <v>1.1847085</v>
       </c>
       <c r="P127" t="n">
-        <v>1.014940981554307</v>
+        <v>1.552236050811783</v>
       </c>
       <c r="Q127" t="n">
-        <v>0.2662560523022507</v>
+        <v>0.2141342552283746</v>
       </c>
       <c r="R127" t="n">
-        <v>2.87491445223856</v>
+        <v>2.878455759965637</v>
       </c>
       <c r="S127" t="n">
-        <v>1.865786653257043</v>
+        <v>0.5596783685001662</v>
       </c>
       <c r="T127" t="n">
-        <v>4.481</v>
+        <v>4.3095</v>
       </c>
       <c r="U127" t="inlineStr">
         <is>
@@ -14613,15 +14513,15 @@
       </c>
       <c r="V127" t="inlineStr">
         <is>
-          <t>HD  63765</t>
+          <t>HD 12661</t>
         </is>
       </c>
       <c r="X127" t="n">
-        <v>38041</v>
+        <v>9683</v>
       </c>
       <c r="Y127" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z127" t="inlineStr">
@@ -14631,16 +14531,16 @@
       </c>
       <c r="AA127" t="inlineStr">
         <is>
-          <t>G9V</t>
+          <t>K0V</t>
         </is>
       </c>
       <c r="AB127" t="inlineStr">
         <is>
-          <t>G9V</t>
+          <t>K0V</t>
         </is>
       </c>
       <c r="AC127" t="n">
-        <v>32.51690278757974</v>
+        <v>37.79087784185079</v>
       </c>
       <c r="AD127" t="inlineStr">
         <is>
@@ -14651,86 +14551,86 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>105332908999068032</t>
+          <t>Gaia DR3 3380479015342121600</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>105332908999068032</t>
+          <t>3380479015342121600</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>105332908999068032</t>
+          <t>3380479015342121600</t>
         </is>
       </c>
       <c r="D128" t="n">
-        <v>31.14233583808426</v>
+        <v>103.6782675948329</v>
       </c>
       <c r="E128" t="n">
-        <v>25.41353914088439</v>
+        <v>24.24512750011012</v>
       </c>
       <c r="F128" t="n">
-        <v>7.262335777282715</v>
+        <v>6.7151780128479</v>
       </c>
       <c r="G128" t="n">
-        <v>7.262335777282715</v>
+        <v>6.7151780128479</v>
       </c>
       <c r="H128" t="n">
-        <v>7.608210563659668</v>
+        <v>6.993736743927002</v>
       </c>
       <c r="I128" t="n">
-        <v>6.749390602111816</v>
+        <v>6.264439582824707</v>
       </c>
       <c r="J128" t="n">
-        <v>0.8588199615478516</v>
+        <v>0.7292971611022949</v>
       </c>
       <c r="K128" t="n">
-        <v>26.46141230655851</v>
+        <v>32.18549484347468</v>
       </c>
       <c r="L128" t="n">
-        <v>5551.7886</v>
+        <v>5934.8613</v>
       </c>
       <c r="M128" t="n">
-        <v>0.9306214</v>
+        <v>1.0883968</v>
       </c>
       <c r="N128" t="n">
-        <v>1.2820382</v>
+        <v>1.4442267</v>
       </c>
       <c r="O128" t="n">
-        <v>1.1847085</v>
+        <v>1.1040779</v>
       </c>
       <c r="P128" t="n">
-        <v>1.552236050811783</v>
+        <v>1.604429007739714</v>
       </c>
       <c r="Q128" t="n">
-        <v>0.2141342552283746</v>
+        <v>0.1948644762375968</v>
       </c>
       <c r="R128" t="n">
-        <v>2.878455759965637</v>
+        <v>2.880011854113967</v>
       </c>
       <c r="S128" t="n">
-        <v>0.5596783685001662</v>
+        <v>0.8087012339381878</v>
       </c>
       <c r="T128" t="n">
-        <v>4.3095</v>
+        <v>4.2335</v>
       </c>
       <c r="U128" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="V128" t="inlineStr">
         <is>
-          <t>HD  12661</t>
+          <t>HD 50554</t>
         </is>
       </c>
       <c r="X128" t="n">
-        <v>9683</v>
+        <v>33212</v>
       </c>
       <c r="Y128" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z128" t="inlineStr">
@@ -14740,16 +14640,16 @@
       </c>
       <c r="AA128" t="inlineStr">
         <is>
-          <t>K0V</t>
+          <t>F8V</t>
         </is>
       </c>
       <c r="AB128" t="inlineStr">
         <is>
-          <t>K0V</t>
+          <t>F8V</t>
         </is>
       </c>
       <c r="AC128" t="n">
-        <v>37.79087784185079</v>
+        <v>31.06989669921887</v>
       </c>
       <c r="AD128" t="inlineStr">
         <is>
@@ -14760,86 +14660,86 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>3380479015342121600</t>
+          <t>Gaia DR3 3037245604373149824</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>3380479015342121600</t>
+          <t>3037245604373149824</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>3380479015342121600</t>
+          <t>3037245604373149824</t>
         </is>
       </c>
       <c r="D129" t="n">
-        <v>103.6782675948329</v>
+        <v>117.9825462042547</v>
       </c>
       <c r="E129" t="n">
-        <v>24.24512750011012</v>
+        <v>-11.03374612299208</v>
       </c>
       <c r="F129" t="n">
-        <v>6.7151780128479</v>
+        <v>7.539186954498291</v>
       </c>
       <c r="G129" t="n">
-        <v>6.7151780128479</v>
+        <v>7.539186954498291</v>
       </c>
       <c r="H129" t="n">
-        <v>6.993736743927002</v>
+        <v>7.885756969451904</v>
       </c>
       <c r="I129" t="n">
-        <v>6.264439582824707</v>
+        <v>7.020042419433594</v>
       </c>
       <c r="J129" t="n">
-        <v>0.7292971611022949</v>
+        <v>0.8657145500183105</v>
       </c>
       <c r="K129" t="n">
-        <v>32.18549484347468</v>
+        <v>31.74931143727319</v>
       </c>
       <c r="L129" t="n">
-        <v>5934.8613</v>
+        <v>5553.502</v>
       </c>
       <c r="M129" t="n">
-        <v>1.0883968</v>
+        <v>0.97039574</v>
       </c>
       <c r="N129" t="n">
-        <v>1.4442267</v>
+        <v>0.707885</v>
       </c>
       <c r="O129" t="n">
-        <v>1.1040779</v>
+        <v>0.8977273</v>
       </c>
       <c r="P129" t="n">
-        <v>1.604429007739714</v>
+        <v>1.153284397753408</v>
       </c>
       <c r="Q129" t="n">
-        <v>0.1948644762375968</v>
+        <v>0.2434397617998559</v>
       </c>
       <c r="R129" t="n">
-        <v>2.880011854113967</v>
+        <v>2.880328975591234</v>
       </c>
       <c r="S129" t="n">
-        <v>0.8087012339381878</v>
+        <v>1.341268064918048</v>
       </c>
       <c r="T129" t="n">
-        <v>4.2335</v>
+        <v>4.5029</v>
       </c>
       <c r="U129" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="V129" t="inlineStr">
         <is>
-          <t>HD  50554</t>
+          <t>HD 64114</t>
         </is>
       </c>
       <c r="X129" t="n">
-        <v>33212</v>
+        <v>38392</v>
       </c>
       <c r="Y129" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z129" t="inlineStr">
@@ -14849,16 +14749,16 @@
       </c>
       <c r="AA129" t="inlineStr">
         <is>
-          <t>F8V</t>
+          <t>G7V</t>
         </is>
       </c>
       <c r="AB129" t="inlineStr">
         <is>
-          <t>F8V</t>
+          <t>G7V</t>
         </is>
       </c>
       <c r="AC129" t="n">
-        <v>31.06989669921887</v>
+        <v>31.49674606253085</v>
       </c>
       <c r="AD129" t="inlineStr">
         <is>
@@ -14869,86 +14769,91 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>3037245604373149824</t>
+          <t>Gaia DR3 6104435819513399168</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>3037245604373149824</t>
+          <t>6104435819513399168</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>3037245604373149824</t>
+          <t>6104435819513399168</t>
         </is>
       </c>
       <c r="D130" t="n">
-        <v>117.9825462042547</v>
+        <v>215.3433300820813</v>
       </c>
       <c r="E130" t="n">
-        <v>-11.03374612299208</v>
+        <v>-40.394253817296</v>
       </c>
       <c r="F130" t="n">
-        <v>7.539186954498291</v>
+        <v>9.003307687940598</v>
       </c>
       <c r="G130" t="n">
-        <v>7.539186954498291</v>
+        <v>8.661815643310547</v>
       </c>
       <c r="H130" t="n">
-        <v>7.885756969451904</v>
+        <v>9.237693786621094</v>
       </c>
       <c r="I130" t="n">
-        <v>7.020042419433594</v>
+        <v>7.944560050964355</v>
       </c>
       <c r="J130" t="n">
-        <v>0.8657145500183105</v>
+        <v>1.293133735656738</v>
       </c>
       <c r="K130" t="n">
-        <v>31.74931143727319</v>
+        <v>35.45773367467926</v>
       </c>
       <c r="L130" t="n">
-        <v>5553.502</v>
+        <v>4592.5415</v>
       </c>
       <c r="M130" t="n">
-        <v>0.97039574</v>
+        <v>0.7825655</v>
       </c>
       <c r="N130" t="n">
-        <v>0.707885</v>
+        <v>0.22859648</v>
       </c>
       <c r="O130" t="n">
-        <v>0.8977273</v>
+        <v>0.6940018999999999</v>
       </c>
       <c r="P130" t="n">
-        <v>1.153284397753408</v>
+        <v>0.7002130175839749</v>
       </c>
       <c r="Q130" t="n">
-        <v>0.2434397617998559</v>
+        <v>0.3503661470389185</v>
       </c>
       <c r="R130" t="n">
-        <v>2.880328975591234</v>
+        <v>2.900721190712675</v>
       </c>
       <c r="S130" t="n">
-        <v>1.341268064918048</v>
+        <v>2.341201099767554</v>
       </c>
       <c r="T130" t="n">
-        <v>4.5029</v>
+        <v>4.5609</v>
       </c>
       <c r="U130" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>K</t>
         </is>
       </c>
       <c r="V130" t="inlineStr">
         <is>
-          <t>HD  64114</t>
+          <t>HD 125595</t>
+        </is>
+      </c>
+      <c r="W130" t="inlineStr">
+        <is>
+          <t>GJ 9479</t>
         </is>
       </c>
       <c r="X130" t="n">
-        <v>38392</v>
+        <v>70170</v>
       </c>
       <c r="Y130" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z130" t="inlineStr">
@@ -14958,111 +14863,106 @@
       </c>
       <c r="AA130" t="inlineStr">
         <is>
-          <t>G7V</t>
+          <t>K4Vk:</t>
         </is>
       </c>
       <c r="AB130" t="inlineStr">
         <is>
-          <t>G7V</t>
+          <t>K4V</t>
         </is>
       </c>
       <c r="AC130" t="n">
-        <v>31.49674606253085</v>
+        <v>28.20259211078994</v>
       </c>
       <c r="AD130" t="inlineStr">
         <is>
-          <t>Dim</t>
+          <t>Dimmer</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>6104435819513399168</t>
+          <t>Gaia DR3 3886688327612984704</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>6104435819513399168</t>
+          <t>3886688327612984704</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>6104435819513399168</t>
+          <t>3886688327612984704</t>
         </is>
       </c>
       <c r="D131" t="n">
-        <v>215.3433300820813</v>
+        <v>154.5874569535938</v>
       </c>
       <c r="E131" t="n">
-        <v>-40.394253817296</v>
+        <v>12.62093377281588</v>
       </c>
       <c r="F131" t="n">
-        <v>9.003307687940598</v>
+        <v>6.884684085845947</v>
       </c>
       <c r="G131" t="n">
-        <v>8.661815643310547</v>
+        <v>6.884684085845947</v>
       </c>
       <c r="H131" t="n">
-        <v>9.237693786621094</v>
+        <v>7.171643257141113</v>
       </c>
       <c r="I131" t="n">
-        <v>7.944560050964355</v>
+        <v>6.425662994384766</v>
       </c>
       <c r="J131" t="n">
-        <v>1.293133735656738</v>
+        <v>0.7459802627563477</v>
       </c>
       <c r="K131" t="n">
-        <v>35.45773367467926</v>
+        <v>31.41340561108033</v>
       </c>
       <c r="L131" t="n">
-        <v>4592.5415</v>
+        <v>5868.628</v>
       </c>
       <c r="M131" t="n">
-        <v>0.7825655</v>
+        <v>1.0528274</v>
       </c>
       <c r="N131" t="n">
-        <v>0.22859648</v>
+        <v>1.3058754</v>
       </c>
       <c r="O131" t="n">
-        <v>0.6940018999999999</v>
+        <v>1.0815943</v>
       </c>
       <c r="P131" t="n">
-        <v>0.7002130175839749</v>
+        <v>1.532530274520229</v>
       </c>
       <c r="Q131" t="n">
-        <v>0.3503661470389185</v>
+        <v>0.2054132824504489</v>
       </c>
       <c r="R131" t="n">
-        <v>2.900721190712675</v>
+        <v>2.918229512858622</v>
       </c>
       <c r="S131" t="n">
-        <v>2.341201099767554</v>
+        <v>0.832077942315791</v>
       </c>
       <c r="T131" t="n">
-        <v>4.5609</v>
+        <v>4.2674</v>
       </c>
       <c r="U131" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>G</t>
         </is>
       </c>
       <c r="V131" t="inlineStr">
         <is>
-          <t>HD 125595</t>
-        </is>
-      </c>
-      <c r="W131" t="inlineStr">
-        <is>
-          <t>GJ 9479, GJ 545.1</t>
+          <t>HD 89307</t>
         </is>
       </c>
       <c r="X131" t="n">
-        <v>70170</v>
+        <v>50473</v>
       </c>
       <c r="Y131" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z131" t="inlineStr">
@@ -15072,106 +14972,106 @@
       </c>
       <c r="AA131" t="inlineStr">
         <is>
-          <t>K4Vk:</t>
+          <t>G0V</t>
         </is>
       </c>
       <c r="AB131" t="inlineStr">
         <is>
-          <t>K4V</t>
+          <t>G0V</t>
         </is>
       </c>
       <c r="AC131" t="n">
-        <v>28.20259211078994</v>
+        <v>31.83354305421994</v>
       </c>
       <c r="AD131" t="inlineStr">
         <is>
-          <t>Dimmer</t>
+          <t>Dim</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>3886688327612984704</t>
+          <t>Gaia DR3 5406324138654973824</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>3886688327612984704</t>
+          <t>5406324138654973824</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>3886688327612984704</t>
+          <t>5406324138654973824</t>
         </is>
       </c>
       <c r="D132" t="n">
-        <v>154.5874569535938</v>
+        <v>147.5105715090425</v>
       </c>
       <c r="E132" t="n">
-        <v>12.62093377281588</v>
+        <v>-49.79053368319249</v>
       </c>
       <c r="F132" t="n">
-        <v>6.884684085845947</v>
+        <v>8.506108924326897</v>
       </c>
       <c r="G132" t="n">
-        <v>6.884684085845947</v>
+        <v>8.304543495178223</v>
       </c>
       <c r="H132" t="n">
-        <v>7.171643257141113</v>
+        <v>8.733869552612305</v>
       </c>
       <c r="I132" t="n">
-        <v>6.425662994384766</v>
+        <v>7.706925868988037</v>
       </c>
       <c r="J132" t="n">
-        <v>0.7459802627563477</v>
+        <v>1.026943683624268</v>
       </c>
       <c r="K132" t="n">
-        <v>31.41340561108033</v>
+        <v>29.82725300587473</v>
       </c>
       <c r="L132" t="n">
-        <v>5868.628</v>
+        <v>5085.374</v>
       </c>
       <c r="M132" t="n">
-        <v>1.0528274</v>
+        <v>0.8439563</v>
       </c>
       <c r="N132" t="n">
-        <v>1.3058754</v>
+        <v>0.41660303</v>
       </c>
       <c r="O132" t="n">
-        <v>1.0815943</v>
+        <v>0.8098743</v>
       </c>
       <c r="P132" t="n">
-        <v>1.532530274520229</v>
+        <v>0.9142985928810272</v>
       </c>
       <c r="Q132" t="n">
-        <v>0.2054132824504489</v>
+        <v>0.2985139229010407</v>
       </c>
       <c r="R132" t="n">
-        <v>2.918229512858622</v>
+        <v>2.932762249593288</v>
       </c>
       <c r="S132" t="n">
-        <v>0.832077942315791</v>
+        <v>1.588792228154827</v>
       </c>
       <c r="T132" t="n">
-        <v>4.2674</v>
+        <v>4.5113</v>
       </c>
       <c r="U132" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>K</t>
         </is>
       </c>
       <c r="V132" t="inlineStr">
         <is>
-          <t>HD  89307</t>
+          <t>HD 85390</t>
         </is>
       </c>
       <c r="X132" t="n">
-        <v>50473</v>
+        <v>48235</v>
       </c>
       <c r="Y132" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z132" t="inlineStr">
@@ -15181,16 +15081,16 @@
       </c>
       <c r="AA132" t="inlineStr">
         <is>
-          <t>G0V</t>
+          <t>K1.5V</t>
         </is>
       </c>
       <c r="AB132" t="inlineStr">
         <is>
-          <t>G0V</t>
+          <t>K1.5V</t>
         </is>
       </c>
       <c r="AC132" t="n">
-        <v>31.83354305421994</v>
+        <v>33.52638608064382</v>
       </c>
       <c r="AD132" t="inlineStr">
         <is>
@@ -15201,86 +15101,86 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>5406324138654973824</t>
+          <t>Gaia DR3 6610107504955838336</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>5406324138654973824</t>
+          <t>6610107504955838336</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>5406324138654973824</t>
+          <t>6610107504955838336</t>
         </is>
       </c>
       <c r="D133" t="n">
-        <v>147.5105715090425</v>
+        <v>343.9749102785995</v>
       </c>
       <c r="E133" t="n">
-        <v>-49.79053368319249</v>
+        <v>-26.65955335832734</v>
       </c>
       <c r="F133" t="n">
-        <v>8.506108924326897</v>
+        <v>7.928397655487061</v>
       </c>
       <c r="G133" t="n">
-        <v>8.304543495178223</v>
+        <v>7.928397655487061</v>
       </c>
       <c r="H133" t="n">
-        <v>8.733869552612305</v>
+        <v>8.317349433898926</v>
       </c>
       <c r="I133" t="n">
-        <v>7.706925868988037</v>
+        <v>7.369429111480713</v>
       </c>
       <c r="J133" t="n">
-        <v>1.026943683624268</v>
+        <v>0.9479203224182129</v>
       </c>
       <c r="K133" t="n">
-        <v>29.82725300587473</v>
+        <v>27.29232783901683</v>
       </c>
       <c r="L133" t="n">
-        <v>5085.374</v>
+        <v>5321.4136</v>
       </c>
       <c r="M133" t="n">
-        <v>0.8439563</v>
+        <v>0.89</v>
       </c>
       <c r="N133" t="n">
-        <v>0.41660303</v>
+        <v>0.6718001</v>
       </c>
       <c r="O133" t="n">
-        <v>0.8098743</v>
+        <v>0.9484261</v>
       </c>
       <c r="P133" t="n">
-        <v>0.9142985928810272</v>
+        <v>1.142000607358331</v>
       </c>
       <c r="Q133" t="n">
-        <v>0.2985139229010407</v>
+        <v>0.2605612699442194</v>
       </c>
       <c r="R133" t="n">
-        <v>2.932762249593288</v>
+        <v>2.937962038283811</v>
       </c>
       <c r="S133" t="n">
-        <v>1.588792228154827</v>
+        <v>1.043228674792056</v>
       </c>
       <c r="T133" t="n">
-        <v>4.5113</v>
+        <v>4.4072</v>
       </c>
       <c r="U133" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>G</t>
         </is>
       </c>
       <c r="V133" t="inlineStr">
         <is>
-          <t>HD  85390</t>
+          <t>HD 216770</t>
         </is>
       </c>
       <c r="X133" t="n">
-        <v>48235</v>
+        <v>113238</v>
       </c>
       <c r="Y133" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z133" t="inlineStr">
@@ -15290,16 +15190,16 @@
       </c>
       <c r="AA133" t="inlineStr">
         <is>
-          <t>K1.5V</t>
+          <t>G9VCN+1</t>
         </is>
       </c>
       <c r="AB133" t="inlineStr">
         <is>
-          <t>K1.5V</t>
+          <t>G9V</t>
         </is>
       </c>
       <c r="AC133" t="n">
-        <v>33.52638608064382</v>
+        <v>36.64033371936894</v>
       </c>
       <c r="AD133" t="inlineStr">
         <is>
@@ -15310,69 +15210,69 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>6610107504955838336</t>
+          <t>Gaia DR3 5341673851394297600</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>6610107504955838336</t>
+          <t>5341673851394297600</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>6610107504955838336</t>
+          <t>5341673851394297600</t>
         </is>
       </c>
       <c r="D134" t="n">
-        <v>343.9749102785995</v>
+        <v>176.2097096570351</v>
       </c>
       <c r="E134" t="n">
-        <v>-26.65955335832734</v>
+        <v>-58.70402313284336</v>
       </c>
       <c r="F134" t="n">
-        <v>7.928397655487061</v>
+        <v>7.295784473419189</v>
       </c>
       <c r="G134" t="n">
-        <v>7.928397655487061</v>
+        <v>7.295784473419189</v>
       </c>
       <c r="H134" t="n">
-        <v>8.317349433898926</v>
+        <v>7.646584987640381</v>
       </c>
       <c r="I134" t="n">
-        <v>7.369429111480713</v>
+        <v>6.774942398071289</v>
       </c>
       <c r="J134" t="n">
-        <v>0.9479203224182129</v>
+        <v>0.8716425895690918</v>
       </c>
       <c r="K134" t="n">
-        <v>27.29232783901683</v>
+        <v>25.35310442539668</v>
       </c>
       <c r="L134" t="n">
-        <v>5321.4136</v>
+        <v>5534.4404</v>
       </c>
       <c r="M134" t="n">
-        <v>0.89</v>
+        <v>0.92613775</v>
       </c>
       <c r="N134" t="n">
-        <v>0.6718001</v>
+        <v>1.3635256</v>
       </c>
       <c r="O134" t="n">
-        <v>0.9484261</v>
+        <v>1.2350873</v>
       </c>
       <c r="P134" t="n">
-        <v>1.142000607358331</v>
+        <v>1.602757707502557</v>
       </c>
       <c r="Q134" t="n">
-        <v>0.2605612699442194</v>
+        <v>0.2157575415248259</v>
       </c>
       <c r="R134" t="n">
-        <v>2.937962038283811</v>
+        <v>2.939989501621099</v>
       </c>
       <c r="S134" t="n">
-        <v>1.043228674792056</v>
+        <v>0.4915668852030486</v>
       </c>
       <c r="T134" t="n">
-        <v>4.4072</v>
+        <v>4.1945</v>
       </c>
       <c r="U134" t="inlineStr">
         <is>
@@ -15381,15 +15281,15 @@
       </c>
       <c r="V134" t="inlineStr">
         <is>
-          <t>HD 216770</t>
+          <t>HD 102117</t>
         </is>
       </c>
       <c r="X134" t="n">
-        <v>113238</v>
+        <v>57291</v>
       </c>
       <c r="Y134" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z134" t="inlineStr">
@@ -15399,16 +15299,16 @@
       </c>
       <c r="AA134" t="inlineStr">
         <is>
-          <t>G9VCN+1</t>
+          <t>G6V</t>
         </is>
       </c>
       <c r="AB134" t="inlineStr">
         <is>
-          <t>G9V</t>
+          <t>G6V</t>
         </is>
       </c>
       <c r="AC134" t="n">
-        <v>36.64033371936894</v>
+        <v>39.44290147751221</v>
       </c>
       <c r="AD134" t="inlineStr">
         <is>
@@ -15419,69 +15319,69 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>5341673851394297600</t>
+          <t>Gaia DR3 5643762781311698048</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>5341673851394297600</t>
+          <t>5643762781311698048</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>5341673851394297600</t>
+          <t>5643762781311698048</t>
         </is>
       </c>
       <c r="D135" t="n">
-        <v>176.2097096570351</v>
+        <v>129.0949668890773</v>
       </c>
       <c r="E135" t="n">
-        <v>-58.70402313284336</v>
+        <v>-30.03732451724493</v>
       </c>
       <c r="F135" t="n">
-        <v>7.295784473419189</v>
+        <v>7.867795467376709</v>
       </c>
       <c r="G135" t="n">
-        <v>7.295784473419189</v>
+        <v>7.867795467376709</v>
       </c>
       <c r="H135" t="n">
-        <v>7.646584987640381</v>
+        <v>8.247074127197266</v>
       </c>
       <c r="I135" t="n">
-        <v>6.774942398071289</v>
+        <v>7.318971157073975</v>
       </c>
       <c r="J135" t="n">
-        <v>0.8716425895690918</v>
+        <v>0.928102970123291</v>
       </c>
       <c r="K135" t="n">
-        <v>25.35310442539668</v>
+        <v>27.24412061973968</v>
       </c>
       <c r="L135" t="n">
-        <v>5534.4404</v>
+        <v>5375.89</v>
       </c>
       <c r="M135" t="n">
-        <v>0.92613775</v>
+        <v>0.8704808000000001</v>
       </c>
       <c r="N135" t="n">
-        <v>1.3635256</v>
+        <v>0.71770597</v>
       </c>
       <c r="O135" t="n">
-        <v>1.2350873</v>
+        <v>0.97662205</v>
       </c>
       <c r="P135" t="n">
-        <v>1.602757707502557</v>
+        <v>1.175856144460357</v>
       </c>
       <c r="Q135" t="n">
-        <v>0.2157575415248259</v>
+        <v>0.260434761280722</v>
       </c>
       <c r="R135" t="n">
-        <v>2.939989501621099</v>
+        <v>2.946889472618117</v>
       </c>
       <c r="S135" t="n">
-        <v>0.4915668852030486</v>
+        <v>0.9345006762131444</v>
       </c>
       <c r="T135" t="n">
-        <v>4.1945</v>
+        <v>4.4001</v>
       </c>
       <c r="U135" t="inlineStr">
         <is>
@@ -15490,15 +15390,15 @@
       </c>
       <c r="V135" t="inlineStr">
         <is>
-          <t>HD 102117</t>
+          <t>HD 73256</t>
         </is>
       </c>
       <c r="X135" t="n">
-        <v>57291</v>
+        <v>42214</v>
       </c>
       <c r="Y135" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>BY*</t>
         </is>
       </c>
       <c r="Z135" t="inlineStr">
@@ -15508,16 +15408,16 @@
       </c>
       <c r="AA135" t="inlineStr">
         <is>
-          <t>G6V</t>
+          <t>G8IV-VFe+0.5</t>
         </is>
       </c>
       <c r="AB135" t="inlineStr">
         <is>
-          <t>G6V</t>
+          <t>G8IV-V</t>
         </is>
       </c>
       <c r="AC135" t="n">
-        <v>39.4429014775122</v>
+        <v>36.70516710586914</v>
       </c>
       <c r="AD135" t="inlineStr">
         <is>
@@ -15528,69 +15428,69 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>5643762781311698048</t>
+          <t>Gaia DR3 5060104351007433472</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>5643762781311698048</t>
+          <t>5060104351007433472</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>5643762781311698048</t>
+          <t>5060104351007433472</t>
         </is>
       </c>
       <c r="D136" t="n">
-        <v>129.0949668890773</v>
+        <v>50.01667855900128</v>
       </c>
       <c r="E136" t="n">
-        <v>-30.03732451724493</v>
+        <v>-28.85436257868635</v>
       </c>
       <c r="F136" t="n">
-        <v>7.867795467376709</v>
+        <v>7.208484649658203</v>
       </c>
       <c r="G136" t="n">
-        <v>7.867795467376709</v>
+        <v>7.208484649658203</v>
       </c>
       <c r="H136" t="n">
-        <v>8.247074127197266</v>
+        <v>7.525684833526611</v>
       </c>
       <c r="I136" t="n">
-        <v>7.318971157073975</v>
+        <v>6.716418266296387</v>
       </c>
       <c r="J136" t="n">
-        <v>0.928102970123291</v>
+        <v>0.8092665672302246</v>
       </c>
       <c r="K136" t="n">
-        <v>27.24412061973968</v>
+        <v>27.87596040406486</v>
       </c>
       <c r="L136" t="n">
-        <v>5375.89</v>
+        <v>5646.912</v>
       </c>
       <c r="M136" t="n">
-        <v>0.8704808000000001</v>
+        <v>0.9707545</v>
       </c>
       <c r="N136" t="n">
-        <v>0.71770597</v>
+        <v>1.2378541</v>
       </c>
       <c r="O136" t="n">
-        <v>0.97662205</v>
+        <v>1.1249139</v>
       </c>
       <c r="P136" t="n">
-        <v>1.175856144460357</v>
+        <v>1.515129271278987</v>
       </c>
       <c r="Q136" t="n">
-        <v>0.2604347612807219</v>
+        <v>0.21781645573855</v>
       </c>
       <c r="R136" t="n">
-        <v>2.946889472618117</v>
+        <v>2.954460693901278</v>
       </c>
       <c r="S136" t="n">
-        <v>0.9345006762131444</v>
+        <v>0.6819484755955724</v>
       </c>
       <c r="T136" t="n">
-        <v>4.4001</v>
+        <v>4.3129</v>
       </c>
       <c r="U136" t="inlineStr">
         <is>
@@ -15599,15 +15499,15 @@
       </c>
       <c r="V136" t="inlineStr">
         <is>
-          <t>HD  73256</t>
+          <t>HD 20782</t>
         </is>
       </c>
       <c r="X136" t="n">
-        <v>42214</v>
+        <v>15527</v>
       </c>
       <c r="Y136" t="inlineStr">
         <is>
-          <t>BYDraV*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z136" t="inlineStr">
@@ -15617,16 +15517,16 @@
       </c>
       <c r="AA136" t="inlineStr">
         <is>
-          <t>G8IV-VFe+0.5</t>
+          <t>G1.5V</t>
         </is>
       </c>
       <c r="AB136" t="inlineStr">
         <is>
-          <t>G8IV-V</t>
+          <t>G1.5V</t>
         </is>
       </c>
       <c r="AC136" t="n">
-        <v>36.70516710586914</v>
+        <v>35.87320348805562</v>
       </c>
       <c r="AD136" t="inlineStr">
         <is>
@@ -15637,116 +15537,111 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>5060104351007433472</t>
+          <t>Gaia DR3 2501948402746099456</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>5060104351007433472</t>
+          <t>2501948402746099456</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>5060104351007433472</t>
+          <t>2501948402746099456</t>
         </is>
       </c>
       <c r="D137" t="n">
-        <v>50.01667855900128</v>
+        <v>40.17990022710249</v>
       </c>
       <c r="E137" t="n">
-        <v>-28.85436257868635</v>
+        <v>1.199707844211168</v>
       </c>
       <c r="F137" t="n">
-        <v>7.208484649658203</v>
+        <v>9.488922886848449</v>
       </c>
       <c r="G137" t="n">
-        <v>7.208484649658203</v>
+        <v>9.037830352783203</v>
       </c>
       <c r="H137" t="n">
-        <v>7.525684833526611</v>
+        <v>9.72831916809082</v>
       </c>
       <c r="I137" t="n">
-        <v>6.716418266296387</v>
+        <v>8.233892440795898</v>
       </c>
       <c r="J137" t="n">
-        <v>0.8092665672302246</v>
+        <v>1.494426727294922</v>
       </c>
       <c r="K137" t="n">
-        <v>27.87596040406486</v>
+        <v>41.82227864133286</v>
       </c>
       <c r="L137" t="n">
-        <v>5646.912</v>
+        <v>4169.766</v>
       </c>
       <c r="M137" t="n">
-        <v>0.9707545</v>
+        <v>0.7</v>
       </c>
       <c r="N137" t="n">
-        <v>1.2378541</v>
+        <v>0.14841694</v>
       </c>
       <c r="O137" t="n">
-        <v>1.1249139</v>
+        <v>0.7567753</v>
       </c>
       <c r="P137" t="n">
-        <v>1.515129271278987</v>
+        <v>0.5792113444777749</v>
       </c>
       <c r="Q137" t="n">
-        <v>0.21781645573855</v>
+        <v>0.4170455027583157</v>
       </c>
       <c r="R137" t="n">
-        <v>2.954460693901278</v>
+        <v>2.970022591198855</v>
       </c>
       <c r="S137" t="n">
-        <v>0.6819484755955724</v>
+        <v>1.615091729727736</v>
       </c>
       <c r="T137" t="n">
-        <v>4.3129</v>
+        <v>4.4871</v>
       </c>
       <c r="U137" t="inlineStr">
         <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="V137" t="inlineStr">
-        <is>
-          <t>HD  20782</t>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="W137" t="inlineStr">
+        <is>
+          <t>GJ 9093</t>
         </is>
       </c>
       <c r="X137" t="n">
-        <v>15527</v>
+        <v>12493</v>
       </c>
       <c r="Y137" t="inlineStr">
         <is>
-          <t>HighPM*</t>
-        </is>
-      </c>
-      <c r="Z137" t="inlineStr">
-        <is>
-          <t>GAIA</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="AA137" t="inlineStr">
         <is>
-          <t>G1.5V</t>
+          <t>K5V</t>
         </is>
       </c>
       <c r="AB137" t="inlineStr">
         <is>
-          <t>G1.5V</t>
+          <t>K5V</t>
         </is>
       </c>
       <c r="AC137" t="n">
-        <v>35.87320348805562</v>
+        <v>23.91070100641772</v>
       </c>
       <c r="AD137" t="inlineStr">
         <is>
-          <t>Dim</t>
+          <t>Dimmer</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>6248534171318085376</t>
+          <t>Gaia DR3 6248534171318085376</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -15825,7 +15720,7 @@
       </c>
       <c r="Y138" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z138" t="inlineStr">
@@ -15855,7 +15750,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>6369544118965772416</t>
+          <t>Gaia DR3 6369544118965772416</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -15934,7 +15829,7 @@
       </c>
       <c r="Y139" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z139" t="inlineStr">
@@ -15953,7 +15848,7 @@
         </is>
       </c>
       <c r="AC139" t="n">
-        <v>39.94770857517241</v>
+        <v>39.94770857517242</v>
       </c>
       <c r="AD139" t="inlineStr">
         <is>
@@ -15964,7 +15859,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>6640676436470581888</t>
+          <t>Gaia DR3 6640676436470581888</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -16043,7 +15938,7 @@
       </c>
       <c r="Y140" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z140" t="inlineStr">
@@ -16073,7 +15968,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>5485320853638354304</t>
+          <t>Gaia DR3 5485320853638354304</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -16144,7 +16039,7 @@
       </c>
       <c r="V141" t="inlineStr">
         <is>
-          <t>HD  51608</t>
+          <t>HD 51608</t>
         </is>
       </c>
       <c r="W141" t="inlineStr">
@@ -16157,7 +16052,7 @@
       </c>
       <c r="Y141" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z141" t="inlineStr">
@@ -16187,7 +16082,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>2919760965880144384</t>
+          <t>Gaia DR3 2919760965880144384</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -16258,7 +16153,7 @@
       </c>
       <c r="V142" t="inlineStr">
         <is>
-          <t>HD  47186</t>
+          <t>HD 47186</t>
         </is>
       </c>
       <c r="X142" t="n">
@@ -16266,7 +16161,7 @@
       </c>
       <c r="Y142" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z142" t="inlineStr">
@@ -16296,7 +16191,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>6572326052043362304</t>
+          <t>Gaia DR3 6572326052043362304</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -16370,7 +16265,7 @@
       </c>
       <c r="Y143" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z143" t="inlineStr">
@@ -16400,7 +16295,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>2893174259322992256</t>
+          <t>Gaia DR3 2893174259322992256</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -16471,7 +16366,7 @@
       </c>
       <c r="V144" t="inlineStr">
         <is>
-          <t>HD  45364</t>
+          <t>HD 45364</t>
         </is>
       </c>
       <c r="X144" t="n">
@@ -16479,7 +16374,7 @@
       </c>
       <c r="Y144" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z144" t="inlineStr">
@@ -16498,7 +16393,7 @@
         </is>
       </c>
       <c r="AC144" t="n">
-        <v>34.32425681601362</v>
+        <v>34.32425681601361</v>
       </c>
       <c r="AD144" t="inlineStr">
         <is>
@@ -16509,7 +16404,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>4650314511916109696</t>
+          <t>Gaia DR3 4650314511916109696</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -16580,7 +16475,7 @@
       </c>
       <c r="V145" t="inlineStr">
         <is>
-          <t>HD  38283</t>
+          <t>HD 38283</t>
         </is>
       </c>
       <c r="X145" t="n">
@@ -16588,7 +16483,7 @@
       </c>
       <c r="Y145" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z145" t="inlineStr">
@@ -16607,7 +16502,7 @@
         </is>
       </c>
       <c r="AC145" t="n">
-        <v>38.04390506928251</v>
+        <v>38.0439050692825</v>
       </c>
       <c r="AD145" t="inlineStr">
         <is>
@@ -16618,7 +16513,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>2343647384368388608</t>
+          <t>Gaia DR3 2343647384368388608</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -16689,7 +16584,7 @@
       </c>
       <c r="V146" t="inlineStr">
         <is>
-          <t>HD   4208</t>
+          <t>HD 4208</t>
         </is>
       </c>
       <c r="W146" t="inlineStr">
@@ -16702,7 +16597,7 @@
       </c>
       <c r="Y146" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z146" t="inlineStr">
@@ -16721,7 +16616,7 @@
         </is>
       </c>
       <c r="AC146" t="n">
-        <v>34.10796327879651</v>
+        <v>34.1079632787965</v>
       </c>
       <c r="AD146" t="inlineStr">
         <is>
@@ -16732,7 +16627,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>5340648488081462528</t>
+          <t>Gaia DR3 5340648488081462528</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -16803,7 +16698,7 @@
       </c>
       <c r="V147" t="inlineStr">
         <is>
-          <t>HD  95338</t>
+          <t>HD 95338</t>
         </is>
       </c>
       <c r="X147" t="n">
@@ -16811,7 +16706,7 @@
       </c>
       <c r="Y147" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z147" t="inlineStr">
@@ -16830,7 +16725,7 @@
         </is>
       </c>
       <c r="AC147" t="n">
-        <v>36.96574143989464</v>
+        <v>36.96574143989465</v>
       </c>
       <c r="AD147" t="inlineStr">
         <is>
@@ -16841,7 +16736,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>4733035238430992768</t>
+          <t>Gaia DR3 4733035238430992768</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -16912,7 +16807,7 @@
       </c>
       <c r="V148" t="inlineStr">
         <is>
-          <t>HD  23079</t>
+          <t>HD 23079</t>
         </is>
       </c>
       <c r="X148" t="n">
@@ -16920,7 +16815,7 @@
       </c>
       <c r="Y148" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z148" t="inlineStr">
@@ -16939,7 +16834,7 @@
         </is>
       </c>
       <c r="AC148" t="n">
-        <v>33.4859494652256</v>
+        <v>33.48594946522561</v>
       </c>
       <c r="AD148" t="inlineStr">
         <is>
@@ -16950,7 +16845,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>5957920668132624256</t>
+          <t>Gaia DR3 5957920668132624256</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -17026,12 +16921,7 @@
       </c>
       <c r="Y149" t="inlineStr">
         <is>
-          <t>Star</t>
-        </is>
-      </c>
-      <c r="Z149" t="inlineStr">
-        <is>
-          <t>SIMBAD + empirical</t>
+          <t>*</t>
         </is>
       </c>
       <c r="AA149" t="inlineStr">
@@ -17056,7 +16946,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>884039857341503616</t>
+          <t>Gaia DR3 884039857341503616</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -17127,7 +17017,7 @@
       </c>
       <c r="W150" t="inlineStr">
         <is>
-          <t>GJ 265 A</t>
+          <t>GJ 265</t>
         </is>
       </c>
       <c r="X150" t="n">
@@ -17135,7 +17025,7 @@
       </c>
       <c r="Y150" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z150" t="inlineStr">
@@ -17165,7 +17055,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>3059948148669499008</t>
+          <t>Gaia DR3 3059948148669499008</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -17239,7 +17129,7 @@
       </c>
       <c r="Y151" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z151" t="inlineStr">
@@ -17258,7 +17148,7 @@
         </is>
       </c>
       <c r="AC151" t="n">
-        <v>33.25352837942447</v>
+        <v>33.25352837942448</v>
       </c>
       <c r="AD151" t="inlineStr">
         <is>
@@ -17269,7 +17159,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>2505825177666430592</t>
+          <t>Gaia DR3 2505825177666430592</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -17340,7 +17230,7 @@
       </c>
       <c r="V152" t="inlineStr">
         <is>
-          <t>HD  11505</t>
+          <t>HD 11505</t>
         </is>
       </c>
       <c r="X152" t="n">
@@ -17348,7 +17238,7 @@
       </c>
       <c r="Y152" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z152" t="inlineStr">
@@ -17378,7 +17268,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>4154598526336121600</t>
+          <t>Gaia DR3 4154598526336121600</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -17454,12 +17344,7 @@
       </c>
       <c r="Y153" t="inlineStr">
         <is>
-          <t>HighPM*</t>
-        </is>
-      </c>
-      <c r="Z153" t="inlineStr">
-        <is>
-          <t>SIMBAD + empirical</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="AA153" t="inlineStr">
@@ -17484,7 +17369,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>3835743693290897152</t>
+          <t>Gaia DR3 3835743693290897152</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -17555,7 +17440,7 @@
       </c>
       <c r="V154" t="inlineStr">
         <is>
-          <t>HD  88072</t>
+          <t>HD 88072</t>
         </is>
       </c>
       <c r="X154" t="n">
@@ -17563,7 +17448,7 @@
       </c>
       <c r="Y154" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z154" t="inlineStr">
@@ -17582,7 +17467,7 @@
         </is>
       </c>
       <c r="AC154" t="n">
-        <v>35.94776196885413</v>
+        <v>35.94776196885412</v>
       </c>
       <c r="AD154" t="inlineStr">
         <is>
@@ -17593,7 +17478,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>6517058790835773440</t>
+          <t>Gaia DR3 6517058790835773440</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -17672,7 +17557,7 @@
       </c>
       <c r="Y155" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z155" t="inlineStr">
@@ -17691,7 +17576,7 @@
         </is>
       </c>
       <c r="AC155" t="n">
-        <v>40.94221332385564</v>
+        <v>40.94221332385563</v>
       </c>
       <c r="AD155" t="inlineStr">
         <is>
@@ -17702,7 +17587,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>5898641087150340224</t>
+          <t>Gaia DR3 5898641087150340224</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -17786,7 +17671,7 @@
       </c>
       <c r="Y156" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z156" t="inlineStr">
@@ -17805,7 +17690,7 @@
         </is>
       </c>
       <c r="AC156" t="n">
-        <v>37.75952833088588</v>
+        <v>37.75952833088589</v>
       </c>
       <c r="AD156" t="inlineStr">
         <is>
@@ -17816,7 +17701,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>3179384931394690304</t>
+          <t>Gaia DR3 3179384931394690304</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -17887,7 +17772,7 @@
       </c>
       <c r="V157" t="inlineStr">
         <is>
-          <t>HD  28185</t>
+          <t>HD 28185</t>
         </is>
       </c>
       <c r="X157" t="n">
@@ -17895,7 +17780,7 @@
       </c>
       <c r="Y157" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z157" t="inlineStr">
@@ -17925,7 +17810,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>2908664557091200768</t>
+          <t>Gaia DR3 2908664557091200768</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -17999,7 +17884,7 @@
       </c>
       <c r="Y158" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z158" t="inlineStr">
@@ -18029,7 +17914,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>637329067477530368</t>
+          <t>Gaia DR3 637329067477530368</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -18100,7 +17985,7 @@
       </c>
       <c r="V159" t="inlineStr">
         <is>
-          <t>HD  81040</t>
+          <t>HD 81040</t>
         </is>
       </c>
       <c r="X159" t="n">
@@ -18108,7 +17993,7 @@
       </c>
       <c r="Y159" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z159" t="inlineStr">
@@ -18138,7 +18023,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>5094032153102626688</t>
+          <t>Gaia DR3 5094032153102626688</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -18209,7 +18094,7 @@
       </c>
       <c r="V160" t="inlineStr">
         <is>
-          <t>HD  25015</t>
+          <t>HD 25015</t>
         </is>
       </c>
       <c r="X160" t="n">
@@ -18217,7 +18102,7 @@
       </c>
       <c r="Y160" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z160" t="inlineStr">
@@ -18236,7 +18121,7 @@
         </is>
       </c>
       <c r="AC160" t="n">
-        <v>37.38550560377671</v>
+        <v>37.38550560377672</v>
       </c>
       <c r="AD160" t="inlineStr">
         <is>
@@ -18247,7 +18132,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>5424836719001215360</t>
+          <t>Gaia DR3 5424836719001215360</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -18318,7 +18203,7 @@
       </c>
       <c r="V161" t="inlineStr">
         <is>
-          <t>HD  83443</t>
+          <t>HD 83443</t>
         </is>
       </c>
       <c r="X161" t="n">
@@ -18326,12 +18211,7 @@
       </c>
       <c r="Y161" t="inlineStr">
         <is>
-          <t>HighPM*</t>
-        </is>
-      </c>
-      <c r="Z161" t="inlineStr">
-        <is>
-          <t>SIMBAD + empirical</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="AA161" t="inlineStr">
@@ -18356,7 +18236,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>3421680597955802624</t>
+          <t>Gaia DR3 3421680597955802624</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -18412,7 +18292,7 @@
         <v>0.2431188321788199</v>
       </c>
       <c r="R162" t="n">
-        <v>3.205595596606246</v>
+        <v>3.205595596606245</v>
       </c>
       <c r="S162" t="n">
         <v>0.7699601345088106</v>
@@ -18427,7 +18307,7 @@
       </c>
       <c r="V162" t="inlineStr">
         <is>
-          <t>HD  32963</t>
+          <t>HD 32963</t>
         </is>
       </c>
       <c r="X162" t="n">
@@ -18435,7 +18315,7 @@
       </c>
       <c r="Y162" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z162" t="inlineStr">
@@ -18465,7 +18345,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>5833117718964892928</t>
+          <t>Gaia DR3 5833117718964892928</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -18544,7 +18424,7 @@
       </c>
       <c r="Y163" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z163" t="inlineStr">
@@ -18574,7 +18454,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>5287961677550103424</t>
+          <t>Gaia DR3 5287961677550103424</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -18645,7 +18525,7 @@
       </c>
       <c r="V164" t="inlineStr">
         <is>
-          <t>HD  65216</t>
+          <t>HD 65216</t>
         </is>
       </c>
       <c r="X164" t="n">
@@ -18653,7 +18533,7 @@
       </c>
       <c r="Y164" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z164" t="inlineStr">
@@ -18683,7 +18563,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>4728513943538448512</t>
+          <t>Gaia DR3 4728513943538448512</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -18754,7 +18634,7 @@
       </c>
       <c r="V165" t="inlineStr">
         <is>
-          <t>HD  18599</t>
+          <t>HD 18599</t>
         </is>
       </c>
       <c r="X165" t="n">
@@ -18762,7 +18642,7 @@
       </c>
       <c r="Y165" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z165" t="inlineStr">
@@ -18792,7 +18672,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>6083860761505899904</t>
+          <t>Gaia DR3 6083860761505899904</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -18871,7 +18751,7 @@
       </c>
       <c r="Y166" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z166" t="inlineStr">
@@ -18890,7 +18770,7 @@
         </is>
       </c>
       <c r="AC166" t="n">
-        <v>37.6748167776623</v>
+        <v>37.67481677766231</v>
       </c>
       <c r="AD166" t="inlineStr">
         <is>
@@ -18901,7 +18781,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>4716158250340258944</t>
+          <t>Gaia DR3 4716158250340258944</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -18972,7 +18852,7 @@
       </c>
       <c r="V167" t="inlineStr">
         <is>
-          <t>HD  10180</t>
+          <t>HD 10180</t>
         </is>
       </c>
       <c r="X167" t="n">
@@ -18980,7 +18860,7 @@
       </c>
       <c r="Y167" t="inlineStr">
         <is>
-          <t>Star</t>
+          <t>*</t>
         </is>
       </c>
       <c r="Z167" t="inlineStr">
@@ -18999,7 +18879,7 @@
         </is>
       </c>
       <c r="AC167" t="n">
-        <v>38.96947837335841</v>
+        <v>38.9694783733584</v>
       </c>
       <c r="AD167" t="inlineStr">
         <is>
@@ -19010,7 +18890,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>5831054382288870912</t>
+          <t>Gaia DR3 5831054382288870912</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -19089,7 +18969,7 @@
       </c>
       <c r="Y168" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z168" t="inlineStr">
@@ -19108,7 +18988,7 @@
         </is>
       </c>
       <c r="AC168" t="n">
-        <v>40.36117773171336</v>
+        <v>40.36117773171337</v>
       </c>
       <c r="AD168" t="inlineStr">
         <is>
@@ -19119,7 +18999,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>6504232472302122624</t>
+          <t>Gaia DR3 6504232472302122624</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -19198,12 +19078,7 @@
       </c>
       <c r="Y169" t="inlineStr">
         <is>
-          <t>HighPM*</t>
-        </is>
-      </c>
-      <c r="Z169" t="inlineStr">
-        <is>
-          <t>SIMBAD + empirical</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="AA169" t="inlineStr">
@@ -19228,7 +19103,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>5124636303346779008</t>
+          <t>Gaia DR3 5124636303346779008</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -19304,12 +19179,7 @@
       </c>
       <c r="Y170" t="inlineStr">
         <is>
-          <t>HighPM*</t>
-        </is>
-      </c>
-      <c r="Z170" t="inlineStr">
-        <is>
-          <t>SIMBAD + empirical</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="AA170" t="inlineStr">
@@ -19323,7 +19193,7 @@
         </is>
       </c>
       <c r="AC170" t="n">
-        <v>23.74026842818532</v>
+        <v>23.74026842818531</v>
       </c>
       <c r="AD170" t="inlineStr">
         <is>
@@ -19334,7 +19204,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>5000774703569900800</t>
+          <t>Gaia DR3 5000774703569900800</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -19405,7 +19275,7 @@
       </c>
       <c r="V171" t="inlineStr">
         <is>
-          <t>HD   4113</t>
+          <t>HD 4113</t>
         </is>
       </c>
       <c r="X171" t="n">
@@ -19413,7 +19283,7 @@
       </c>
       <c r="Y171" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z171" t="inlineStr">
@@ -19443,7 +19313,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>3905603054348141440</t>
+          <t>Gaia DR3 3905603054348141440</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -19522,7 +19392,7 @@
       </c>
       <c r="Y172" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z172" t="inlineStr">
@@ -19552,7 +19422,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>4959271163279358208</t>
+          <t>Gaia DR3 4959271163279358208</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -19623,7 +19493,7 @@
       </c>
       <c r="V173" t="inlineStr">
         <is>
-          <t>HD  11112</t>
+          <t>HD 11112</t>
         </is>
       </c>
       <c r="W173" t="inlineStr">
@@ -19666,7 +19536,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>4794830231453653888</t>
+          <t>Gaia DR3 4794830231453653888</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -19734,7 +19604,7 @@
       </c>
       <c r="V174" t="inlineStr">
         <is>
-          <t>HD  41004, HD  41004A</t>
+          <t>HD 41004</t>
         </is>
       </c>
       <c r="X174" t="n">
@@ -19742,7 +19612,7 @@
       </c>
       <c r="Y174" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z174" t="inlineStr">
@@ -19761,7 +19631,7 @@
         </is>
       </c>
       <c r="AC174" t="n">
-        <v>39.04634387928019</v>
+        <v>39.0463438792802</v>
       </c>
       <c r="AD174" t="inlineStr">
         <is>
@@ -19772,7 +19642,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>4153637759337630720</t>
+          <t>Gaia DR3 4153637759337630720</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -19851,7 +19721,7 @@
       </c>
       <c r="Y175" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z175" t="inlineStr">
@@ -19881,7 +19751,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>5778418870846853888</t>
+          <t>Gaia DR3 5778418870846853888</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -19960,7 +19830,7 @@
       </c>
       <c r="Y176" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z176" t="inlineStr">
@@ -19990,7 +19860,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>6230733559097425152</t>
+          <t>Gaia DR3 6230733559097425152</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -20064,12 +19934,7 @@
       </c>
       <c r="Y177" t="inlineStr">
         <is>
-          <t>HighPM*</t>
-        </is>
-      </c>
-      <c r="Z177" t="inlineStr">
-        <is>
-          <t>SIMBAD + empirical</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="AA177" t="inlineStr">
@@ -20094,7 +19959,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>2972622770521857664</t>
+          <t>Gaia DR3 2972622770521857664</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -20165,7 +20030,7 @@
       </c>
       <c r="V178" t="inlineStr">
         <is>
-          <t>HD  31527</t>
+          <t>HD 31527</t>
         </is>
       </c>
       <c r="X178" t="n">
@@ -20173,7 +20038,7 @@
       </c>
       <c r="Y178" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z178" t="inlineStr">
@@ -20203,7 +20068,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>3241295308714904960</t>
+          <t>Gaia DR3 3241295308714904960</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -20274,7 +20139,7 @@
       </c>
       <c r="V179" t="inlineStr">
         <is>
-          <t>HD  34445</t>
+          <t>HD 34445</t>
         </is>
       </c>
       <c r="X179" t="n">
@@ -20282,7 +20147,7 @@
       </c>
       <c r="Y179" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z179" t="inlineStr">
@@ -20301,7 +20166,7 @@
         </is>
       </c>
       <c r="AC179" t="n">
-        <v>45.79445107924215</v>
+        <v>45.79445107924214</v>
       </c>
       <c r="AD179" t="inlineStr">
         <is>
@@ -20312,7 +20177,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>2440578577126302336</t>
+          <t>Gaia DR3 2440578577126302336</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -20391,7 +20256,7 @@
       </c>
       <c r="Y180" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z180" t="inlineStr">
@@ -20421,7 +20286,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>5617244278837970816</t>
+          <t>Gaia DR3 5617244278837970816</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -20500,7 +20365,7 @@
       </c>
       <c r="Y181" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z181" t="inlineStr">
@@ -20519,7 +20384,7 @@
         </is>
       </c>
       <c r="AC181" t="n">
-        <v>28.45789623201938</v>
+        <v>28.45789623201939</v>
       </c>
       <c r="AD181" t="inlineStr">
         <is>
@@ -20530,7 +20395,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>4122343906051101184</t>
+          <t>Gaia DR3 4122343906051101184</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -20586,7 +20451,7 @@
         <v>0.1661441484199969</v>
       </c>
       <c r="R182" t="n">
-        <v>3.49539843415675</v>
+        <v>3.495398434156749</v>
       </c>
       <c r="S182" t="n">
         <v>0.1607430578859499</v>
@@ -20609,7 +20474,7 @@
       </c>
       <c r="Y182" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z182" t="inlineStr">
@@ -20639,7 +20504,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>1846882224145757056</t>
+          <t>Gaia DR3 1846882224145757056</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -20710,7 +20575,7 @@
       </c>
       <c r="V183" t="inlineStr">
         <is>
-          <t>HD 203030, HD 203030A</t>
+          <t>HD 203030</t>
         </is>
       </c>
       <c r="X183" t="n">
@@ -20718,7 +20583,7 @@
       </c>
       <c r="Y183" t="inlineStr">
         <is>
-          <t>BYDraV*</t>
+          <t>BY*</t>
         </is>
       </c>
       <c r="Z183" t="inlineStr">
@@ -20748,7 +20613,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>5746824674801810816</t>
+          <t>Gaia DR3 5746824674801810816</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -20819,7 +20684,7 @@
       </c>
       <c r="V184" t="inlineStr">
         <is>
-          <t>HD  73583</t>
+          <t>HD 73583</t>
         </is>
       </c>
       <c r="W184" t="inlineStr">
@@ -20832,7 +20697,7 @@
       </c>
       <c r="Y184" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z184" t="inlineStr">
@@ -20851,7 +20716,7 @@
         </is>
       </c>
       <c r="AC184" t="n">
-        <v>31.58870948768594</v>
+        <v>31.58870948768593</v>
       </c>
       <c r="AD184" t="inlineStr">
         <is>
@@ -20862,7 +20727,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>43802039287826432</t>
+          <t>Gaia DR3 43802039287826432</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -20933,7 +20798,7 @@
       </c>
       <c r="V185" t="inlineStr">
         <is>
-          <t>HD  24040</t>
+          <t>HD 24040</t>
         </is>
       </c>
       <c r="X185" t="n">
@@ -20941,7 +20806,7 @@
       </c>
       <c r="Y185" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z185" t="inlineStr">
@@ -20971,7 +20836,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>5649661592466640000</t>
+          <t>Gaia DR3 5649661592466640000</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -21042,7 +20907,7 @@
       </c>
       <c r="V186" t="inlineStr">
         <is>
-          <t>HD  77338</t>
+          <t>HD 77338</t>
         </is>
       </c>
       <c r="X186" t="n">
@@ -21050,7 +20915,7 @@
       </c>
       <c r="Y186" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z186" t="inlineStr">
@@ -21080,7 +20945,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>6160221740968692992</t>
+          <t>Gaia DR3 6160221740968692992</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -21159,7 +21024,7 @@
       </c>
       <c r="Y187" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z187" t="inlineStr">
@@ -21189,7 +21054,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>2367734656180397952</t>
+          <t>Gaia DR3 2367734656180397952</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -21263,12 +21128,7 @@
       </c>
       <c r="Y188" t="inlineStr">
         <is>
-          <t>HighPM*</t>
-        </is>
-      </c>
-      <c r="Z188" t="inlineStr">
-        <is>
-          <t>SIMBAD + empirical</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="AA188" t="inlineStr">
@@ -21282,7 +21142,7 @@
         </is>
       </c>
       <c r="AC188" t="n">
-        <v>34.51567593898474</v>
+        <v>34.51567593898475</v>
       </c>
       <c r="AD188" t="inlineStr">
         <is>
@@ -21293,7 +21153,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>4988158666636598272</t>
+          <t>Gaia DR3 4988158666636598272</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -21364,7 +21224,7 @@
       </c>
       <c r="V189" t="inlineStr">
         <is>
-          <t>HD   6434</t>
+          <t>HD 6434</t>
         </is>
       </c>
       <c r="W189" t="inlineStr">
@@ -21377,7 +21237,7 @@
       </c>
       <c r="Y189" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z189" t="inlineStr">
@@ -21407,7 +21267,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>3681795018676501120</t>
+          <t>Gaia DR3 3681795018676501120</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -21486,7 +21346,7 @@
       </c>
       <c r="Y190" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z190" t="inlineStr">
@@ -21516,7 +21376,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>3538141457982396928</t>
+          <t>Gaia DR3 3538141457982396928</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -21587,7 +21447,7 @@
       </c>
       <c r="V191" t="inlineStr">
         <is>
-          <t>HD  98649</t>
+          <t>HD 98649</t>
         </is>
       </c>
       <c r="X191" t="n">
@@ -21595,7 +21455,7 @@
       </c>
       <c r="Y191" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z191" t="inlineStr">
@@ -21614,7 +21474,7 @@
         </is>
       </c>
       <c r="AC191" t="n">
-        <v>42.1574768112244</v>
+        <v>42.15747681122439</v>
       </c>
       <c r="AD191" t="inlineStr">
         <is>
@@ -21625,7 +21485,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>5209903017765189760</t>
+          <t>Gaia DR3 5209903017765189760</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -21696,7 +21556,7 @@
       </c>
       <c r="V192" t="inlineStr">
         <is>
-          <t>HD  63454</t>
+          <t>HD 63454</t>
         </is>
       </c>
       <c r="X192" t="n">
@@ -21704,7 +21564,7 @@
       </c>
       <c r="Y192" t="inlineStr">
         <is>
-          <t>Star</t>
+          <t>*</t>
         </is>
       </c>
       <c r="Z192" t="inlineStr">
@@ -21734,7 +21594,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>3368214650329888512</t>
+          <t>Gaia DR3 3368214650329888512</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -21805,7 +21665,7 @@
       </c>
       <c r="V193" t="inlineStr">
         <is>
-          <t>HD  53532</t>
+          <t>HD 53532</t>
         </is>
       </c>
       <c r="X193" t="n">
@@ -21813,7 +21673,7 @@
       </c>
       <c r="Y193" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z193" t="inlineStr">
@@ -21843,7 +21703,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>5019835424832215424</t>
+          <t>Gaia DR3 5019835424832215424</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -21914,7 +21774,7 @@
       </c>
       <c r="V194" t="inlineStr">
         <is>
-          <t>HD  13386</t>
+          <t>HD 13386</t>
         </is>
       </c>
       <c r="X194" t="n">
@@ -21922,7 +21782,7 @@
       </c>
       <c r="Y194" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z194" t="inlineStr">
@@ -21952,7 +21812,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>6570039342736534784</t>
+          <t>Gaia DR3 6570039342736534784</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -22031,7 +21891,7 @@
       </c>
       <c r="Y195" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z195" t="inlineStr">
@@ -22061,7 +21921,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>4642472794978268800</t>
+          <t>Gaia DR3 4642472794978268800</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -22117,7 +21977,7 @@
         <v>0.327873397367086</v>
       </c>
       <c r="R196" t="n">
-        <v>3.728611559600728</v>
+        <v>3.728611559600727</v>
       </c>
       <c r="S196" t="n">
         <v>1.161880101773845</v>
@@ -22132,7 +21992,7 @@
       </c>
       <c r="V196" t="inlineStr">
         <is>
-          <t>HD  20003</t>
+          <t>HD 20003</t>
         </is>
       </c>
       <c r="X196" t="n">
@@ -22140,7 +22000,7 @@
       </c>
       <c r="Y196" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z196" t="inlineStr">
@@ -22170,7 +22030,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>2783854903410922496</t>
+          <t>Gaia DR3 2783854903410922496</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -22244,12 +22104,7 @@
       </c>
       <c r="Y197" t="inlineStr">
         <is>
-          <t>HighPM*</t>
-        </is>
-      </c>
-      <c r="Z197" t="inlineStr">
-        <is>
-          <t>SIMBAD + empirical</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="AA197" t="inlineStr">
@@ -22274,7 +22129,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>4096449891854565760</t>
+          <t>Gaia DR3 4096449891854565760</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -22353,7 +22208,7 @@
       </c>
       <c r="Y198" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z198" t="inlineStr">
@@ -22372,7 +22227,7 @@
         </is>
       </c>
       <c r="AC198" t="n">
-        <v>39.970395183273</v>
+        <v>39.97039518327299</v>
       </c>
       <c r="AD198" t="inlineStr">
         <is>
@@ -22383,7 +22238,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>5872266689455300608</t>
+          <t>Gaia DR3 5872266689455300608</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -22462,7 +22317,7 @@
       </c>
       <c r="Y199" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z199" t="inlineStr">
@@ -22492,7 +22347,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>5672053902679434112</t>
+          <t>Gaia DR3 5672053902679434112</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -22560,7 +22415,7 @@
       </c>
       <c r="V200" t="inlineStr">
         <is>
-          <t>HD  86065</t>
+          <t>HD 86065</t>
         </is>
       </c>
       <c r="X200" t="n">
@@ -22568,12 +22423,7 @@
       </c>
       <c r="Y200" t="inlineStr">
         <is>
-          <t>HighPM*</t>
-        </is>
-      </c>
-      <c r="Z200" t="inlineStr">
-        <is>
-          <t>SIMBAD + empirical</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="AA200" t="inlineStr">
@@ -22587,7 +22437,7 @@
         </is>
       </c>
       <c r="AC200" t="n">
-        <v>40.50402066497493</v>
+        <v>40.50402066497492</v>
       </c>
       <c r="AD200" t="inlineStr">
         <is>
@@ -22598,7 +22448,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>2482820714353923072</t>
+          <t>Gaia DR3 2482820714353923072</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -22669,7 +22519,7 @@
       </c>
       <c r="V201" t="inlineStr">
         <is>
-          <t>HD   7449A, HD   7449</t>
+          <t>HD 7449</t>
         </is>
       </c>
       <c r="X201" t="n">
@@ -22677,7 +22527,7 @@
       </c>
       <c r="Y201" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z201" t="inlineStr">
@@ -22707,7 +22557,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>5068777809824976256</t>
+          <t>Gaia DR3 5068777809824976256</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
@@ -22778,7 +22628,7 @@
       </c>
       <c r="V202" t="inlineStr">
         <is>
-          <t>HD  15337</t>
+          <t>HD 15337</t>
         </is>
       </c>
       <c r="X202" t="n">
@@ -22786,7 +22636,7 @@
       </c>
       <c r="Y202" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z202" t="inlineStr">
@@ -22816,7 +22666,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>4724771790072689664</t>
+          <t>Gaia DR3 4724771790072689664</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
@@ -22887,7 +22737,7 @@
       </c>
       <c r="V203" t="inlineStr">
         <is>
-          <t>HD  16905</t>
+          <t>HD 16905</t>
         </is>
       </c>
       <c r="X203" t="n">
@@ -22895,7 +22745,7 @@
       </c>
       <c r="Y203" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z203" t="inlineStr">
@@ -22925,7 +22775,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>6832155218215202944</t>
+          <t>Gaia DR3 6832155218215202944</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
@@ -23004,7 +22854,7 @@
       </c>
       <c r="Y204" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z204" t="inlineStr">
@@ -23034,7 +22884,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>4942867480584948352</t>
+          <t>Gaia DR3 4942867480584948352</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
@@ -23105,7 +22955,7 @@
       </c>
       <c r="V205" t="inlineStr">
         <is>
-          <t>HD  13724</t>
+          <t>HD 13724</t>
         </is>
       </c>
       <c r="X205" t="n">
@@ -23113,7 +22963,7 @@
       </c>
       <c r="Y205" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z205" t="inlineStr">
@@ -23132,7 +22982,7 @@
         </is>
       </c>
       <c r="AC205" t="n">
-        <v>43.44858756704053</v>
+        <v>43.44858756704052</v>
       </c>
       <c r="AD205" t="inlineStr">
         <is>
@@ -23143,7 +22993,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>297045096447719040</t>
+          <t>Gaia DR3 297045096447719040</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
@@ -23214,7 +23064,7 @@
       </c>
       <c r="V206" t="inlineStr">
         <is>
-          <t>HD   8574</t>
+          <t>HD 8574</t>
         </is>
       </c>
       <c r="X206" t="n">
@@ -23222,7 +23072,7 @@
       </c>
       <c r="Y206" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z206" t="inlineStr">
@@ -23241,7 +23091,7 @@
         </is>
       </c>
       <c r="AC206" t="n">
-        <v>44.83183193089612</v>
+        <v>44.83183193089613</v>
       </c>
       <c r="AD206" t="inlineStr">
         <is>
@@ -23252,7 +23102,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>5579783574073770112</t>
+          <t>Gaia DR3 5579783574073770112</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
@@ -23323,7 +23173,7 @@
       </c>
       <c r="V207" t="inlineStr">
         <is>
-          <t>HD  50499</t>
+          <t>HD 50499</t>
         </is>
       </c>
       <c r="X207" t="n">
@@ -23331,7 +23181,7 @@
       </c>
       <c r="Y207" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z207" t="inlineStr">
@@ -23361,7 +23211,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>5391813299572883456</t>
+          <t>Gaia DR3 5391813299572883456</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
@@ -23432,7 +23282,7 @@
       </c>
       <c r="V208" t="inlineStr">
         <is>
-          <t>HD  93385</t>
+          <t>HD 93385</t>
         </is>
       </c>
       <c r="X208" t="n">
@@ -23440,7 +23290,7 @@
       </c>
       <c r="Y208" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z208" t="inlineStr">
@@ -23459,7 +23309,7 @@
         </is>
       </c>
       <c r="AC208" t="n">
-        <v>43.19850507028815</v>
+        <v>43.19850507028814</v>
       </c>
       <c r="AD208" t="inlineStr">
         <is>
@@ -23470,7 +23320,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>6434759761383343744</t>
+          <t>Gaia DR3 6434759761383343744</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
@@ -23549,7 +23399,7 @@
       </c>
       <c r="Y209" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z209" t="inlineStr">
@@ -23579,7 +23429,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>4868261081155110400</t>
+          <t>Gaia DR3 4868261081155110400</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
@@ -23647,7 +23497,7 @@
       </c>
       <c r="V210" t="inlineStr">
         <is>
-          <t>HD  29985</t>
+          <t>HD 29985</t>
         </is>
       </c>
       <c r="X210" t="n">
@@ -23655,12 +23505,7 @@
       </c>
       <c r="Y210" t="inlineStr">
         <is>
-          <t>HighPM*</t>
-        </is>
-      </c>
-      <c r="Z210" t="inlineStr">
-        <is>
-          <t>SIMBAD + empirical</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="AA210" t="inlineStr">
@@ -23685,7 +23530,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>1170797781264303616</t>
+          <t>Gaia DR3 1170797781264303616</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
@@ -23764,7 +23609,7 @@
       </c>
       <c r="Y211" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z211" t="inlineStr">
@@ -23783,7 +23628,7 @@
         </is>
       </c>
       <c r="AC211" t="n">
-        <v>48.00723138287086</v>
+        <v>48.00723138287085</v>
       </c>
       <c r="AD211" t="inlineStr">
         <is>
@@ -23794,7 +23639,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>5772625505422769024</t>
+          <t>Gaia DR3 5772625505422769024</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
@@ -23873,7 +23718,7 @@
       </c>
       <c r="Y212" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z212" t="inlineStr">
@@ -23903,7 +23748,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>6828450688663428224</t>
+          <t>Gaia DR3 6828450688663428224</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
@@ -23982,7 +23827,7 @@
       </c>
       <c r="Y213" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z213" t="inlineStr">
@@ -24012,7 +23857,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>3786035184916139136</t>
+          <t>Gaia DR3 3786035184916139136</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
@@ -24065,10 +23910,10 @@
         <v>1.306557484467024</v>
       </c>
       <c r="Q214" t="n">
-        <v>0.3237290349157123</v>
+        <v>0.3237290349157124</v>
       </c>
       <c r="R214" t="n">
-        <v>3.916525982685399</v>
+        <v>3.9165259826854</v>
       </c>
       <c r="S214" t="n">
         <v>0.8389912101767373</v>
@@ -24091,7 +23936,7 @@
       </c>
       <c r="Y214" t="inlineStr">
         <is>
-          <t>Star</t>
+          <t>*</t>
         </is>
       </c>
       <c r="Z214" t="inlineStr">
@@ -24110,7 +23955,7 @@
         </is>
       </c>
       <c r="AC214" t="n">
-        <v>49.60553735214268</v>
+        <v>49.60553735214269</v>
       </c>
       <c r="AD214" t="inlineStr">
         <is>
@@ -24121,7 +23966,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>2643842302456085888</t>
+          <t>Gaia DR3 2643842302456085888</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
@@ -24200,7 +24045,7 @@
       </c>
       <c r="Y215" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z215" t="inlineStr">
@@ -24230,7 +24075,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>4678605152248591488</t>
+          <t>Gaia DR3 4678605152248591488</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
@@ -24301,7 +24146,7 @@
       </c>
       <c r="V216" t="inlineStr">
         <is>
-          <t>HD  27894</t>
+          <t>HD 27894</t>
         </is>
       </c>
       <c r="X216" t="n">
@@ -24309,12 +24154,7 @@
       </c>
       <c r="Y216" t="inlineStr">
         <is>
-          <t>HighPM*</t>
-        </is>
-      </c>
-      <c r="Z216" t="inlineStr">
-        <is>
-          <t>SIMBAD + empirical</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="AA216" t="inlineStr">
@@ -24328,7 +24168,7 @@
         </is>
       </c>
       <c r="AC216" t="n">
-        <v>43.68940258586057</v>
+        <v>43.68940258586056</v>
       </c>
       <c r="AD216" t="inlineStr">
         <is>
@@ -24339,7 +24179,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>6692069568458919040</t>
+          <t>Gaia DR3 6692069568458919040</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
@@ -24418,7 +24258,7 @@
       </c>
       <c r="Y217" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z217" t="inlineStr">
@@ -24448,7 +24288,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>2554032474712538880</t>
+          <t>Gaia DR3 2554032474712538880</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
@@ -24516,7 +24356,7 @@
       </c>
       <c r="V218" t="inlineStr">
         <is>
-          <t>HD   3167</t>
+          <t>HD 3167</t>
         </is>
       </c>
       <c r="X218" t="n">
@@ -24524,12 +24364,7 @@
       </c>
       <c r="Y218" t="inlineStr">
         <is>
-          <t>HighPM*</t>
-        </is>
-      </c>
-      <c r="Z218" t="inlineStr">
-        <is>
-          <t>SIMBAD + empirical</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="AA218" t="inlineStr">
@@ -24554,7 +24389,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>4134094524223600640</t>
+          <t>Gaia DR3 4134094524223600640</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
@@ -24633,7 +24468,7 @@
       </c>
       <c r="Y219" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z219" t="inlineStr">
@@ -24652,7 +24487,7 @@
         </is>
       </c>
       <c r="AC219" t="n">
-        <v>43.75574962910681</v>
+        <v>43.7557496291068</v>
       </c>
       <c r="AD219" t="inlineStr">
         <is>
@@ -24663,7 +24498,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>686996756484129664</t>
+          <t>Gaia DR3 686996756484129664</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
@@ -24734,7 +24569,7 @@
       </c>
       <c r="V220" t="inlineStr">
         <is>
-          <t>HD  79498</t>
+          <t>HD 79498</t>
         </is>
       </c>
       <c r="X220" t="n">
@@ -24742,7 +24577,7 @@
       </c>
       <c r="Y220" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z220" t="inlineStr">
@@ -24772,7 +24607,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>6724520279784564864</t>
+          <t>Gaia DR3 6724520279784564864</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
@@ -24851,7 +24686,7 @@
       </c>
       <c r="Y221" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z221" t="inlineStr">
@@ -24881,7 +24716,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>4674216245427964416</t>
+          <t>Gaia DR3 4674216245427964416</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
@@ -24952,7 +24787,7 @@
       </c>
       <c r="V222" t="inlineStr">
         <is>
-          <t>HD  23472</t>
+          <t>HD 23472</t>
         </is>
       </c>
       <c r="X222" t="n">
@@ -24960,7 +24795,7 @@
       </c>
       <c r="Y222" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z222" t="inlineStr">
@@ -24979,7 +24814,7 @@
         </is>
       </c>
       <c r="AC222" t="n">
-        <v>39.0903762579788</v>
+        <v>39.09037625797879</v>
       </c>
       <c r="AD222" t="inlineStr">
         <is>
@@ -24990,7 +24825,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>4062446910648807168</t>
+          <t>Gaia DR3 4062446910648807168</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
@@ -25069,7 +24904,7 @@
       </c>
       <c r="Y223" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z223" t="inlineStr">
@@ -25088,7 +24923,7 @@
         </is>
       </c>
       <c r="AC223" t="n">
-        <v>40.02126546111606</v>
+        <v>40.02126546111605</v>
       </c>
       <c r="AD223" t="inlineStr">
         <is>
@@ -25099,7 +24934,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>6387058411482257536</t>
+          <t>Gaia DR3 6387058411482257536</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
@@ -25170,7 +25005,7 @@
       </c>
       <c r="V224" t="inlineStr">
         <is>
-          <t>HD 222259, HD 222259A</t>
+          <t>HD 222259</t>
         </is>
       </c>
       <c r="X224" t="n">
@@ -25178,7 +25013,7 @@
       </c>
       <c r="Y224" t="inlineStr">
         <is>
-          <t>RSCVnV*</t>
+          <t>RS*</t>
         </is>
       </c>
       <c r="Z224" t="inlineStr">
@@ -25208,7 +25043,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>3601912720075891968</t>
+          <t>Gaia DR3 3601912720075891968</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
@@ -25287,7 +25122,7 @@
       </c>
       <c r="Y225" t="inlineStr">
         <is>
-          <t>BYDraV*</t>
+          <t>BY*</t>
         </is>
       </c>
       <c r="Z225" t="inlineStr">
@@ -25306,7 +25141,7 @@
         </is>
       </c>
       <c r="AC225" t="n">
-        <v>45.41587527300077</v>
+        <v>45.41587527300078</v>
       </c>
       <c r="AD225" t="inlineStr">
         <is>
@@ -25317,7 +25152,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>5965406010180880640</t>
+          <t>Gaia DR3 5965406010180880640</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
@@ -25396,7 +25231,7 @@
       </c>
       <c r="Y226" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z226" t="inlineStr">
@@ -25415,7 +25250,7 @@
         </is>
       </c>
       <c r="AC226" t="n">
-        <v>48.40740849332203</v>
+        <v>48.40740849332204</v>
       </c>
       <c r="AD226" t="inlineStr">
         <is>
@@ -25426,7 +25261,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>4996711836306613120</t>
+          <t>Gaia DR3 4996711836306613120</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
@@ -25497,12 +25332,7 @@
       </c>
       <c r="Y227" t="inlineStr">
         <is>
-          <t>HighPM*</t>
-        </is>
-      </c>
-      <c r="Z227" t="inlineStr">
-        <is>
-          <t>SIMBAD + empirical</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="AA227" t="inlineStr">
@@ -25527,7 +25357,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>3693358861640279296</t>
+          <t>Gaia DR3 3693358861640279296</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
@@ -25606,7 +25436,7 @@
       </c>
       <c r="Y228" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z228" t="inlineStr">
@@ -25625,7 +25455,7 @@
         </is>
       </c>
       <c r="AC228" t="n">
-        <v>49.38756836309987</v>
+        <v>49.38756836309988</v>
       </c>
       <c r="AD228" t="inlineStr">
         <is>
@@ -25636,7 +25466,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>3145754895088191744</t>
+          <t>Gaia DR3 3145754895088191744</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
@@ -25707,7 +25537,7 @@
       </c>
       <c r="V229" t="inlineStr">
         <is>
-          <t>HD  63935</t>
+          <t>HD 63935</t>
         </is>
       </c>
       <c r="X229" t="n">
@@ -25715,7 +25545,7 @@
       </c>
       <c r="Y229" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>MS*</t>
         </is>
       </c>
       <c r="Z229" t="inlineStr">
@@ -25745,7 +25575,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>4048636941542753152</t>
+          <t>Gaia DR3 4048636941542753152</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
@@ -25798,7 +25628,7 @@
         <v>1.078590777279337</v>
       </c>
       <c r="Q230" t="n">
-        <v>0.3631436423975714</v>
+        <v>0.3631436423975715</v>
       </c>
       <c r="R230" t="n">
         <v>4.0826927660645</v>
@@ -25821,7 +25651,7 @@
       </c>
       <c r="Y230" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z230" t="inlineStr">
@@ -25851,7 +25681,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>2391838429257482496</t>
+          <t>Gaia DR3 2391838429257482496</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
@@ -25930,7 +25760,7 @@
       </c>
       <c r="Y231" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z231" t="inlineStr">
@@ -25960,7 +25790,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>5452634262730082176</t>
+          <t>Gaia DR3 5452634262730082176</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
@@ -26034,7 +25864,7 @@
       </c>
       <c r="Y232" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z232" t="inlineStr">
@@ -26064,7 +25894,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>6586580842340695040</t>
+          <t>Gaia DR3 6586580842340695040</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
@@ -26143,7 +25973,7 @@
       </c>
       <c r="Y233" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z233" t="inlineStr">
@@ -26162,7 +25992,7 @@
         </is>
       </c>
       <c r="AC233" t="n">
-        <v>44.9058749968657</v>
+        <v>44.90587499686569</v>
       </c>
       <c r="AD233" t="inlineStr">
         <is>
@@ -26173,7 +26003,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>5660492297395345408</t>
+          <t>Gaia DR3 5660492297395345408</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
@@ -26244,7 +26074,7 @@
       </c>
       <c r="V234" t="inlineStr">
         <is>
-          <t>HD  86226</t>
+          <t>HD 86226</t>
         </is>
       </c>
       <c r="X234" t="n">
@@ -26252,7 +26082,7 @@
       </c>
       <c r="Y234" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z234" t="inlineStr">
@@ -26271,7 +26101,7 @@
         </is>
       </c>
       <c r="AC234" t="n">
-        <v>45.5994814754951</v>
+        <v>45.59948147549512</v>
       </c>
       <c r="AD234" t="inlineStr">
         <is>
@@ -26282,7 +26112,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>3056551894686671616</t>
+          <t>Gaia DR3 3056551894686671616</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
@@ -26353,7 +26183,7 @@
       </c>
       <c r="V235" t="inlineStr">
         <is>
-          <t>HD  62549</t>
+          <t>HD 62549</t>
         </is>
       </c>
       <c r="X235" t="n">
@@ -26361,7 +26191,7 @@
       </c>
       <c r="Y235" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z235" t="inlineStr">
@@ -26391,7 +26221,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>6407428994690988928</t>
+          <t>Gaia DR3 6407428994690988928</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
@@ -26470,7 +26300,7 @@
       </c>
       <c r="Y236" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z236" t="inlineStr">
@@ -26489,7 +26319,7 @@
         </is>
       </c>
       <c r="AC236" t="n">
-        <v>47.7743423085</v>
+        <v>47.77434230850001</v>
       </c>
       <c r="AD236" t="inlineStr">
         <is>
@@ -26500,7 +26330,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>5842782219960409728</t>
+          <t>Gaia DR3 5842782219960409728</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
@@ -26579,7 +26409,7 @@
       </c>
       <c r="Y237" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z237" t="inlineStr">
@@ -26598,7 +26428,7 @@
         </is>
       </c>
       <c r="AC237" t="n">
-        <v>48.94746311087911</v>
+        <v>48.9474631108791</v>
       </c>
       <c r="AD237" t="inlineStr">
         <is>
@@ -26609,7 +26439,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>2517585931994600448</t>
+          <t>Gaia DR3 2517585931994600448</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
@@ -26680,7 +26510,7 @@
       </c>
       <c r="V238" t="inlineStr">
         <is>
-          <t>HD  12484</t>
+          <t>HD 12484</t>
         </is>
       </c>
       <c r="X238" t="n">
@@ -26688,7 +26518,7 @@
       </c>
       <c r="Y238" t="inlineStr">
         <is>
-          <t>Star</t>
+          <t>*</t>
         </is>
       </c>
       <c r="Z238" t="inlineStr">
@@ -26718,7 +26548,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>3770419611540574080</t>
+          <t>Gaia DR3 3770419611540574080</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
@@ -26792,7 +26622,7 @@
       </c>
       <c r="Y239" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z239" t="inlineStr">
@@ -26822,7 +26652,7 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>4807503030677131392</t>
+          <t>Gaia DR3 4807503030677131392</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
@@ -26890,12 +26720,7 @@
       </c>
       <c r="Y240" t="inlineStr">
         <is>
-          <t>HighPM*</t>
-        </is>
-      </c>
-      <c r="Z240" t="inlineStr">
-        <is>
-          <t>SIMBAD + empirical</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="AA240" t="inlineStr">
@@ -26920,7 +26745,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>3205907595694244480</t>
+          <t>Gaia DR3 3205907595694244480</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
@@ -26991,7 +26816,7 @@
       </c>
       <c r="V241" t="inlineStr">
         <is>
-          <t>HD  28192</t>
+          <t>HD 28192</t>
         </is>
       </c>
       <c r="X241" t="n">
@@ -26999,7 +26824,7 @@
       </c>
       <c r="Y241" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z241" t="inlineStr">
@@ -27018,7 +26843,7 @@
         </is>
       </c>
       <c r="AC241" t="n">
-        <v>49.67715212603137</v>
+        <v>49.67715212603139</v>
       </c>
       <c r="AD241" t="inlineStr">
         <is>
@@ -27029,7 +26854,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>5175239363214344960</t>
+          <t>Gaia DR3 5175239363214344960</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
@@ -27100,7 +26925,7 @@
       </c>
       <c r="V242" t="inlineStr">
         <is>
-          <t>HD  15906</t>
+          <t>HD 15906</t>
         </is>
       </c>
       <c r="X242" t="n">
@@ -27108,7 +26933,7 @@
       </c>
       <c r="Y242" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z242" t="inlineStr">
@@ -27138,7 +26963,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>1779546757669063552</t>
+          <t>Gaia DR3 1779546757669063552</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
@@ -27217,7 +27042,7 @@
       </c>
       <c r="Y243" t="inlineStr">
         <is>
-          <t>Variable*</t>
+          <t>V*</t>
         </is>
       </c>
       <c r="Z243" t="inlineStr">
@@ -27247,7 +27072,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>4828528063821835648</t>
+          <t>Gaia DR3 4828528063821835648</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
@@ -27318,7 +27143,7 @@
       </c>
       <c r="V244" t="inlineStr">
         <is>
-          <t>HD  25912</t>
+          <t>HD 25912</t>
         </is>
       </c>
       <c r="X244" t="n">
@@ -27326,7 +27151,7 @@
       </c>
       <c r="Y244" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z244" t="inlineStr">
@@ -27356,7 +27181,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>6541360574788758016</t>
+          <t>Gaia DR3 6541360574788758016</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
@@ -27435,7 +27260,7 @@
       </c>
       <c r="Y245" t="inlineStr">
         <is>
-          <t>Star</t>
+          <t>*</t>
         </is>
       </c>
       <c r="Z245" t="inlineStr">
@@ -27465,7 +27290,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>3265335443260522112</t>
+          <t>Gaia DR3 3265335443260522112</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
@@ -27503,7 +27328,7 @@
         <v>43.70273455684943</v>
       </c>
       <c r="L246" t="n">
-        <v>6053.409651448156</v>
+        <v>6053.40966796875</v>
       </c>
       <c r="M246" t="n">
         <v>1.3089361</v>
@@ -27515,20 +27340,20 @@
         <v>1.7000881</v>
       </c>
       <c r="P246" t="n">
-        <v>2.65212404130512</v>
+        <v>2.652124038400704</v>
       </c>
       <c r="Q246" t="n">
-        <v>0.2153145614953356</v>
+        <v>0.2153145991708072</v>
       </c>
       <c r="R246" t="n">
-        <v>4.486810940608945</v>
+        <v>4.486811723252697</v>
       </c>
       <c r="S246" t="n">
         <v>0.2663815632047701</v>
       </c>
       <c r="V246" t="inlineStr">
         <is>
-          <t>HD  19994</t>
+          <t>HD 19994</t>
         </is>
       </c>
       <c r="W246" t="inlineStr">
@@ -27541,7 +27366,7 @@
       </c>
       <c r="Y246" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z246" t="inlineStr">
@@ -27571,7 +27396,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>5077642283022422656</t>
+          <t>Gaia DR3 5077642283022422656</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
@@ -27624,10 +27449,10 @@
         <v>0.6165071607213818</v>
       </c>
       <c r="Q247" t="n">
-        <v>0.6169259980420062</v>
+        <v>0.6169259980420061</v>
       </c>
       <c r="R247" t="n">
-        <v>4.532745868878172</v>
+        <v>4.532745868878171</v>
       </c>
       <c r="S247" t="n">
         <v>2.032094901061378</v>
@@ -27642,12 +27467,7 @@
       </c>
       <c r="Y247" t="inlineStr">
         <is>
-          <t>HighPM*</t>
-        </is>
-      </c>
-      <c r="Z247" t="inlineStr">
-        <is>
-          <t>SIMBAD + empirical</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="AA247" t="inlineStr">
@@ -27661,7 +27481,7 @@
         </is>
       </c>
       <c r="AC247" t="n">
-        <v>23.4230829515883</v>
+        <v>23.42308295158829</v>
       </c>
       <c r="AD247" t="inlineStr">
         <is>
@@ -27672,7 +27492,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>1272123859439770368</t>
+          <t>Gaia DR3 1272123859439770368</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
@@ -27743,12 +27563,7 @@
       </c>
       <c r="Y248" t="inlineStr">
         <is>
-          <t>HighPM*</t>
-        </is>
-      </c>
-      <c r="Z248" t="inlineStr">
-        <is>
-          <t>SIMBAD + empirical</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="AA248" t="inlineStr">
@@ -27773,7 +27588,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>3620325206217720320</t>
+          <t>Gaia DR3 3620325206217720320</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
@@ -27844,12 +27659,7 @@
       </c>
       <c r="Y249" t="inlineStr">
         <is>
-          <t>HighPM*</t>
-        </is>
-      </c>
-      <c r="Z249" t="inlineStr">
-        <is>
-          <t>SIMBAD + empirical</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="AA249" t="inlineStr">
@@ -27874,7 +27684,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>3694842171545206656</t>
+          <t>Gaia DR3 3694842171545206656</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
@@ -27953,12 +27763,7 @@
       </c>
       <c r="Y250" t="inlineStr">
         <is>
-          <t>HighPM*</t>
-        </is>
-      </c>
-      <c r="Z250" t="inlineStr">
-        <is>
-          <t>SIMBAD + empirical</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="AA250" t="inlineStr">
@@ -27972,7 +27777,7 @@
         </is>
       </c>
       <c r="AC250" t="n">
-        <v>38.70278275048757</v>
+        <v>38.70278275048758</v>
       </c>
       <c r="AD250" t="inlineStr">
         <is>
@@ -27983,7 +27788,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>3220926542276901888</t>
+          <t>Gaia DR3 3220926542276901888</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
@@ -28056,12 +27861,7 @@
       </c>
       <c r="Y251" t="inlineStr">
         <is>
-          <t>HighPM*</t>
-        </is>
-      </c>
-      <c r="Z251" t="inlineStr">
-        <is>
-          <t>SIMBAD + empirical</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="AA251" t="inlineStr">
@@ -28086,7 +27886,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>5250780970316845696</t>
+          <t>Gaia DR3 5250780970316845696</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
@@ -28139,10 +27939,10 @@
         <v>0.4026311336917571</v>
       </c>
       <c r="Q252" t="n">
-        <v>0.9386424423932032</v>
+        <v>0.9386424423932033</v>
       </c>
       <c r="R252" t="n">
-        <v>5.02924784540017</v>
+        <v>5.029247845400172</v>
       </c>
       <c r="S252" t="n">
         <v>2.803773182186938</v>
@@ -28154,12 +27954,7 @@
       </c>
       <c r="Y252" t="inlineStr">
         <is>
-          <t>HighPM*</t>
-        </is>
-      </c>
-      <c r="Z252" t="inlineStr">
-        <is>
-          <t>SIMBAD + empirical</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="AA252" t="inlineStr">
@@ -28173,7 +27968,7 @@
         </is>
       </c>
       <c r="AC252" t="n">
-        <v>41.80344952411277</v>
+        <v>41.80344952411276</v>
       </c>
       <c r="AD252" t="inlineStr">
         <is>
@@ -28184,7 +27979,7 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>6598814657249555328</t>
+          <t>Gaia DR3 6598814657249555328</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
@@ -28237,10 +28032,10 @@
         <v>0.6002050508857573</v>
       </c>
       <c r="Q253" t="n">
-        <v>0.6994500493180024</v>
+        <v>0.6994500493180023</v>
       </c>
       <c r="R253" t="n">
-        <v>5.066808676581831</v>
+        <v>5.06680867658183</v>
       </c>
       <c r="S253" t="n">
         <v>2.005730181042971</v>
@@ -28258,7 +28053,7 @@
       </c>
       <c r="Y253" t="inlineStr">
         <is>
-          <t>Star</t>
+          <t>*</t>
         </is>
       </c>
       <c r="Z253" t="inlineStr">
@@ -28288,7 +28083,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>45159901786885632</t>
+          <t>Gaia DR3 45159901786885632</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
@@ -28367,7 +28162,7 @@
       </c>
       <c r="Y254" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z254" t="inlineStr">
@@ -28397,7 +28192,7 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>666427539629086976</t>
+          <t>Gaia DR3 666427539629086976</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
@@ -28468,7 +28263,7 @@
       </c>
       <c r="V255" t="inlineStr">
         <is>
-          <t>HD  73344</t>
+          <t>HD 73344</t>
         </is>
       </c>
       <c r="X255" t="n">
@@ -28476,7 +28271,7 @@
       </c>
       <c r="Y255" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z255" t="inlineStr">
@@ -28506,7 +28301,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>2602406721431348096</t>
+          <t>Gaia DR3 2602406721431348096</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
@@ -28580,7 +28375,7 @@
       </c>
       <c r="Y256" t="inlineStr">
         <is>
-          <t>Low-Mass*</t>
+          <t>LM*</t>
         </is>
       </c>
       <c r="Z256" t="inlineStr">
@@ -28599,7 +28394,7 @@
         </is>
       </c>
       <c r="AC256" t="n">
-        <v>49.85840889292393</v>
+        <v>49.85840889292392</v>
       </c>
       <c r="AD256" t="inlineStr">
         <is>
@@ -28610,7 +28405,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>1803475188714186368</t>
+          <t>Gaia DR3 1803475188714186368</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
@@ -28678,7 +28473,7 @@
       </c>
       <c r="W257" t="inlineStr">
         <is>
-          <t>GJ 9689, GJ 784.1</t>
+          <t>GJ 9689</t>
         </is>
       </c>
       <c r="X257" t="n">
@@ -28686,12 +28481,7 @@
       </c>
       <c r="Y257" t="inlineStr">
         <is>
-          <t>HighPM*</t>
-        </is>
-      </c>
-      <c r="Z257" t="inlineStr">
-        <is>
-          <t>SIMBAD + empirical</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="AA257" t="inlineStr">
@@ -28716,7 +28506,7 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>6770313530317154560</t>
+          <t>Gaia DR3 6770313530317154560</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
@@ -28800,7 +28590,7 @@
       </c>
       <c r="Y258" t="inlineStr">
         <is>
-          <t>BYDraV*</t>
+          <t>BY*</t>
         </is>
       </c>
       <c r="Z258" t="inlineStr">
@@ -28830,7 +28620,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>4223507222112425344</t>
+          <t>Gaia DR3 4223507222112425344</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
@@ -28898,12 +28688,7 @@
       </c>
       <c r="Y259" t="inlineStr">
         <is>
-          <t>HighPM*</t>
-        </is>
-      </c>
-      <c r="Z259" t="inlineStr">
-        <is>
-          <t>SIMBAD + empirical</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="AA259" t="inlineStr">
@@ -28928,7 +28713,7 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>1754430373040023168</t>
+          <t>Gaia DR3 1754430373040023168</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
@@ -28999,7 +28784,7 @@
       </c>
       <c r="V260" t="inlineStr">
         <is>
-          <t>HD 196885, HD 196885A</t>
+          <t>HD 196885</t>
         </is>
       </c>
       <c r="X260" t="n">
@@ -29037,7 +28822,7 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>6053512007260865280</t>
+          <t>Gaia DR3 6053512007260865280</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
@@ -29116,7 +28901,7 @@
       </c>
       <c r="Y261" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z261" t="inlineStr">
@@ -29135,7 +28920,7 @@
         </is>
       </c>
       <c r="AC261" t="n">
-        <v>38.82183150703955</v>
+        <v>38.82183150703956</v>
       </c>
       <c r="AD261" t="inlineStr">
         <is>
@@ -29146,7 +28931,7 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>1244571953471006720</t>
+          <t>Gaia DR3 1244571953471006720</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
@@ -29222,7 +29007,7 @@
       </c>
       <c r="W262" t="inlineStr">
         <is>
-          <t>GJ 527 A, GJ 527</t>
+          <t>GJ 527</t>
         </is>
       </c>
       <c r="X262" t="n">
@@ -29230,7 +29015,7 @@
       </c>
       <c r="Y262" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z262" t="inlineStr">
@@ -29260,7 +29045,7 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>4976894960284258048</t>
+          <t>Gaia DR3 4976894960284258048</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
@@ -29331,12 +29116,12 @@
       </c>
       <c r="V263" t="inlineStr">
         <is>
-          <t>HD    142, HD    142A</t>
+          <t>HD 142</t>
         </is>
       </c>
       <c r="W263" t="inlineStr">
         <is>
-          <t>GJ 9002 A, GJ 4.2 A</t>
+          <t>GJ 9002</t>
         </is>
       </c>
       <c r="X263" t="n">
@@ -29344,7 +29129,7 @@
       </c>
       <c r="Y263" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z263" t="inlineStr">
@@ -29374,7 +29159,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>4048037707717866880</t>
+          <t>Gaia DR3 4048037707717866880</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
@@ -29450,7 +29235,7 @@
       </c>
       <c r="Y264" t="inlineStr">
         <is>
-          <t>Star</t>
+          <t>*</t>
         </is>
       </c>
       <c r="Z264" t="inlineStr">
@@ -29480,7 +29265,7 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>5064574724769475968</t>
+          <t>Gaia DR3 5064574724769475968</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
@@ -29551,7 +29336,7 @@
       </c>
       <c r="V265" t="inlineStr">
         <is>
-          <t>HD  17926</t>
+          <t>HD 17926</t>
         </is>
       </c>
       <c r="X265" t="n">
@@ -29559,7 +29344,7 @@
       </c>
       <c r="Y265" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z265" t="inlineStr">
@@ -29578,7 +29363,7 @@
         </is>
       </c>
       <c r="AC265" t="n">
-        <v>31.70399233689044</v>
+        <v>31.70399233689045</v>
       </c>
       <c r="AD265" t="inlineStr">
         <is>
@@ -29589,7 +29374,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>102082477749475200</t>
+          <t>Gaia DR3 102082477749475200</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
@@ -29660,7 +29445,7 @@
       </c>
       <c r="V266" t="inlineStr">
         <is>
-          <t>HD  16232</t>
+          <t>HD 16232</t>
         </is>
       </c>
       <c r="X266" t="n">
@@ -29668,7 +29453,7 @@
       </c>
       <c r="Y266" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z266" t="inlineStr">
@@ -29687,7 +29472,7 @@
         </is>
       </c>
       <c r="AC266" t="n">
-        <v>44.42326960281487</v>
+        <v>44.42326960281488</v>
       </c>
       <c r="AD266" t="inlineStr">
         <is>
@@ -29698,7 +29483,7 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>3679242575447826432</t>
+          <t>Gaia DR3 3679242575447826432</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
@@ -29801,7 +29586,7 @@
         </is>
       </c>
       <c r="AC267" t="n">
-        <v>33.43573905652014</v>
+        <v>33.43573905652015</v>
       </c>
       <c r="AD267" t="inlineStr">
         <is>
@@ -29812,7 +29597,7 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>3301771025223950336</t>
+          <t>Gaia DR3 3301771025223950336</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
@@ -29883,7 +29668,7 @@
       </c>
       <c r="V268" t="inlineStr">
         <is>
-          <t>HD  25463</t>
+          <t>HD 25463</t>
         </is>
       </c>
       <c r="X268" t="n">
@@ -29891,7 +29676,7 @@
       </c>
       <c r="Y268" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>MS*</t>
         </is>
       </c>
       <c r="Z268" t="inlineStr">
@@ -29910,7 +29695,7 @@
         </is>
       </c>
       <c r="AC268" t="n">
-        <v>45.18455781418143</v>
+        <v>45.18455781418142</v>
       </c>
       <c r="AD268" t="inlineStr">
         <is>
@@ -29921,7 +29706,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>5480006192386819456</t>
+          <t>Gaia DR3 5480006192386819456</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
@@ -29974,10 +29759,10 @@
         <v>2.334306302244112</v>
       </c>
       <c r="Q269" t="n">
-        <v>1.753876511144289</v>
+        <v>1.753876511144288</v>
       </c>
       <c r="R269" t="n">
-        <v>33.76423036948551</v>
+        <v>33.7642303694855</v>
       </c>
       <c r="S269" t="n">
         <v>0.415053030397252</v>
@@ -29992,7 +29777,7 @@
       </c>
       <c r="V269" t="inlineStr">
         <is>
-          <t>HD  50571</t>
+          <t>HD 50571</t>
         </is>
       </c>
       <c r="X269" t="n">
@@ -30000,7 +29785,7 @@
       </c>
       <c r="Y269" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z269" t="inlineStr">
@@ -30019,7 +29804,7 @@
         </is>
       </c>
       <c r="AC269" t="n">
-        <v>33.92840645115612</v>
+        <v>33.92840645115611</v>
       </c>
       <c r="AD269" t="inlineStr">
         <is>
@@ -30030,7 +29815,7 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>6843672087120107264</t>
+          <t>Gaia DR3 6843672087120107264</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
@@ -30109,7 +29894,7 @@
       </c>
       <c r="Y270" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z270" t="inlineStr">
@@ -30139,7 +29924,7 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>3285426613077584384</t>
+          <t>Gaia DR3 3285426613077584384</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
@@ -30210,7 +29995,7 @@
       </c>
       <c r="V271" t="inlineStr">
         <is>
-          <t>HD  28736</t>
+          <t>HD 28736</t>
         </is>
       </c>
       <c r="X271" t="n">
@@ -30218,7 +30003,7 @@
       </c>
       <c r="Y271" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z271" t="inlineStr">

--- a/results/GAIA__TESS_confirmed__matches__unique_stars.xlsx
+++ b/results/GAIA__TESS_confirmed__matches__unique_stars.xlsx
@@ -843,7 +843,7 @@
         </is>
       </c>
       <c r="AC3" t="n">
-        <v>3.652170961142576</v>
+        <v>3.652170961142577</v>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="AC7" t="n">
-        <v>8.811567976359873</v>
+        <v>8.811567976359871</v>
       </c>
       <c r="AD7" t="inlineStr">
         <is>
@@ -3647,7 +3647,7 @@
         </is>
       </c>
       <c r="AC28" t="n">
-        <v>16.95317213092453</v>
+        <v>16.95317213092454</v>
       </c>
       <c r="AD28" t="inlineStr">
         <is>
@@ -5653,7 +5653,7 @@
         </is>
       </c>
       <c r="AC46" t="n">
-        <v>29.19704507130449</v>
+        <v>29.1970450713045</v>
       </c>
       <c r="AD46" t="inlineStr">
         <is>
@@ -7529,7 +7529,7 @@
         </is>
       </c>
       <c r="AC63" t="n">
-        <v>24.02704996155895</v>
+        <v>24.02704996155894</v>
       </c>
       <c r="AD63" t="inlineStr">
         <is>
@@ -8420,7 +8420,7 @@
         </is>
       </c>
       <c r="AC71" t="n">
-        <v>26.43860874095107</v>
+        <v>26.43860874095106</v>
       </c>
       <c r="AD71" t="inlineStr">
         <is>
@@ -8967,7 +8967,7 @@
         </is>
       </c>
       <c r="AC76" t="n">
-        <v>24.35307217768576</v>
+        <v>24.35307217768575</v>
       </c>
       <c r="AD76" t="inlineStr">
         <is>
@@ -11167,7 +11167,7 @@
         </is>
       </c>
       <c r="AC96" t="n">
-        <v>28.66728132126344</v>
+        <v>28.66728132126345</v>
       </c>
       <c r="AD96" t="inlineStr">
         <is>
@@ -11597,7 +11597,7 @@
         </is>
       </c>
       <c r="AC100" t="n">
-        <v>29.95679853602366</v>
+        <v>29.95679853602365</v>
       </c>
       <c r="AD100" t="inlineStr">
         <is>
@@ -12909,7 +12909,7 @@
         </is>
       </c>
       <c r="AC112" t="n">
-        <v>37.72770847073156</v>
+        <v>37.72770847073155</v>
       </c>
       <c r="AD112" t="inlineStr">
         <is>
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="AC119" t="n">
-        <v>31.91256875549757</v>
+        <v>31.91256875549758</v>
       </c>
       <c r="AD119" t="inlineStr">
         <is>
@@ -14099,7 +14099,7 @@
         </is>
       </c>
       <c r="AC123" t="n">
-        <v>35.95528493702558</v>
+        <v>35.95528493702557</v>
       </c>
       <c r="AD123" t="inlineStr">
         <is>
@@ -14208,7 +14208,7 @@
         </is>
       </c>
       <c r="AC124" t="n">
-        <v>34.11243639603775</v>
+        <v>34.11243639603774</v>
       </c>
       <c r="AD124" t="inlineStr">
         <is>
@@ -15308,7 +15308,7 @@
         </is>
       </c>
       <c r="AC134" t="n">
-        <v>39.44290147751221</v>
+        <v>39.4429014775122</v>
       </c>
       <c r="AD134" t="inlineStr">
         <is>
@@ -15848,7 +15848,7 @@
         </is>
       </c>
       <c r="AC139" t="n">
-        <v>39.94770857517242</v>
+        <v>39.94770857517241</v>
       </c>
       <c r="AD139" t="inlineStr">
         <is>
@@ -16393,7 +16393,7 @@
         </is>
       </c>
       <c r="AC144" t="n">
-        <v>34.32425681601361</v>
+        <v>34.32425681601362</v>
       </c>
       <c r="AD144" t="inlineStr">
         <is>
@@ -16502,7 +16502,7 @@
         </is>
       </c>
       <c r="AC145" t="n">
-        <v>38.0439050692825</v>
+        <v>38.04390506928251</v>
       </c>
       <c r="AD145" t="inlineStr">
         <is>
@@ -16616,7 +16616,7 @@
         </is>
       </c>
       <c r="AC146" t="n">
-        <v>34.1079632787965</v>
+        <v>34.10796327879651</v>
       </c>
       <c r="AD146" t="inlineStr">
         <is>
@@ -16725,7 +16725,7 @@
         </is>
       </c>
       <c r="AC147" t="n">
-        <v>36.96574143989465</v>
+        <v>36.96574143989464</v>
       </c>
       <c r="AD147" t="inlineStr">
         <is>
@@ -16834,7 +16834,7 @@
         </is>
       </c>
       <c r="AC148" t="n">
-        <v>33.48594946522561</v>
+        <v>33.4859494652256</v>
       </c>
       <c r="AD148" t="inlineStr">
         <is>
@@ -17148,7 +17148,7 @@
         </is>
       </c>
       <c r="AC151" t="n">
-        <v>33.25352837942448</v>
+        <v>33.25352837942447</v>
       </c>
       <c r="AD151" t="inlineStr">
         <is>
@@ -17467,7 +17467,7 @@
         </is>
       </c>
       <c r="AC154" t="n">
-        <v>35.94776196885412</v>
+        <v>35.94776196885413</v>
       </c>
       <c r="AD154" t="inlineStr">
         <is>
@@ -17576,7 +17576,7 @@
         </is>
       </c>
       <c r="AC155" t="n">
-        <v>40.94221332385563</v>
+        <v>40.94221332385564</v>
       </c>
       <c r="AD155" t="inlineStr">
         <is>
@@ -17690,7 +17690,7 @@
         </is>
       </c>
       <c r="AC156" t="n">
-        <v>37.75952833088589</v>
+        <v>37.75952833088588</v>
       </c>
       <c r="AD156" t="inlineStr">
         <is>
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="AC160" t="n">
-        <v>37.38550560377672</v>
+        <v>37.38550560377671</v>
       </c>
       <c r="AD160" t="inlineStr">
         <is>
@@ -18770,7 +18770,7 @@
         </is>
       </c>
       <c r="AC166" t="n">
-        <v>37.67481677766231</v>
+        <v>37.6748167776623</v>
       </c>
       <c r="AD166" t="inlineStr">
         <is>
@@ -18879,7 +18879,7 @@
         </is>
       </c>
       <c r="AC167" t="n">
-        <v>38.9694783733584</v>
+        <v>38.96947837335841</v>
       </c>
       <c r="AD167" t="inlineStr">
         <is>
@@ -18988,7 +18988,7 @@
         </is>
       </c>
       <c r="AC168" t="n">
-        <v>40.36117773171337</v>
+        <v>40.36117773171336</v>
       </c>
       <c r="AD168" t="inlineStr">
         <is>
@@ -19193,7 +19193,7 @@
         </is>
       </c>
       <c r="AC170" t="n">
-        <v>23.74026842818531</v>
+        <v>23.74026842818532</v>
       </c>
       <c r="AD170" t="inlineStr">
         <is>
@@ -19631,7 +19631,7 @@
         </is>
       </c>
       <c r="AC174" t="n">
-        <v>39.0463438792802</v>
+        <v>39.04634387928019</v>
       </c>
       <c r="AD174" t="inlineStr">
         <is>
@@ -20166,7 +20166,7 @@
         </is>
       </c>
       <c r="AC179" t="n">
-        <v>45.79445107924214</v>
+        <v>45.79445107924215</v>
       </c>
       <c r="AD179" t="inlineStr">
         <is>
@@ -20384,7 +20384,7 @@
         </is>
       </c>
       <c r="AC181" t="n">
-        <v>28.45789623201939</v>
+        <v>28.45789623201938</v>
       </c>
       <c r="AD181" t="inlineStr">
         <is>
@@ -20716,7 +20716,7 @@
         </is>
       </c>
       <c r="AC184" t="n">
-        <v>31.58870948768593</v>
+        <v>31.58870948768594</v>
       </c>
       <c r="AD184" t="inlineStr">
         <is>
@@ -21142,7 +21142,7 @@
         </is>
       </c>
       <c r="AC188" t="n">
-        <v>34.51567593898475</v>
+        <v>34.51567593898474</v>
       </c>
       <c r="AD188" t="inlineStr">
         <is>
@@ -21474,7 +21474,7 @@
         </is>
       </c>
       <c r="AC191" t="n">
-        <v>42.15747681122439</v>
+        <v>42.1574768112244</v>
       </c>
       <c r="AD191" t="inlineStr">
         <is>
@@ -22227,7 +22227,7 @@
         </is>
       </c>
       <c r="AC198" t="n">
-        <v>39.97039518327299</v>
+        <v>39.970395183273</v>
       </c>
       <c r="AD198" t="inlineStr">
         <is>
@@ -22437,7 +22437,7 @@
         </is>
       </c>
       <c r="AC200" t="n">
-        <v>40.50402066497492</v>
+        <v>40.50402066497493</v>
       </c>
       <c r="AD200" t="inlineStr">
         <is>
@@ -22982,7 +22982,7 @@
         </is>
       </c>
       <c r="AC205" t="n">
-        <v>43.44858756704052</v>
+        <v>43.44858756704053</v>
       </c>
       <c r="AD205" t="inlineStr">
         <is>
@@ -23091,7 +23091,7 @@
         </is>
       </c>
       <c r="AC206" t="n">
-        <v>44.83183193089613</v>
+        <v>44.83183193089612</v>
       </c>
       <c r="AD206" t="inlineStr">
         <is>
@@ -23309,7 +23309,7 @@
         </is>
       </c>
       <c r="AC208" t="n">
-        <v>43.19850507028814</v>
+        <v>43.19850507028815</v>
       </c>
       <c r="AD208" t="inlineStr">
         <is>
@@ -23628,7 +23628,7 @@
         </is>
       </c>
       <c r="AC211" t="n">
-        <v>48.00723138287085</v>
+        <v>48.00723138287086</v>
       </c>
       <c r="AD211" t="inlineStr">
         <is>
@@ -23955,7 +23955,7 @@
         </is>
       </c>
       <c r="AC214" t="n">
-        <v>49.60553735214269</v>
+        <v>49.60553735214268</v>
       </c>
       <c r="AD214" t="inlineStr">
         <is>
@@ -24168,7 +24168,7 @@
         </is>
       </c>
       <c r="AC216" t="n">
-        <v>43.68940258586056</v>
+        <v>43.68940258586057</v>
       </c>
       <c r="AD216" t="inlineStr">
         <is>
@@ -24487,7 +24487,7 @@
         </is>
       </c>
       <c r="AC219" t="n">
-        <v>43.7557496291068</v>
+        <v>43.75574962910681</v>
       </c>
       <c r="AD219" t="inlineStr">
         <is>
@@ -24814,7 +24814,7 @@
         </is>
       </c>
       <c r="AC222" t="n">
-        <v>39.09037625797879</v>
+        <v>39.0903762579788</v>
       </c>
       <c r="AD222" t="inlineStr">
         <is>
@@ -24923,7 +24923,7 @@
         </is>
       </c>
       <c r="AC223" t="n">
-        <v>40.02126546111605</v>
+        <v>40.02126546111606</v>
       </c>
       <c r="AD223" t="inlineStr">
         <is>
@@ -25141,7 +25141,7 @@
         </is>
       </c>
       <c r="AC225" t="n">
-        <v>45.41587527300078</v>
+        <v>45.41587527300077</v>
       </c>
       <c r="AD225" t="inlineStr">
         <is>
@@ -25250,7 +25250,7 @@
         </is>
       </c>
       <c r="AC226" t="n">
-        <v>48.40740849332204</v>
+        <v>48.40740849332203</v>
       </c>
       <c r="AD226" t="inlineStr">
         <is>
@@ -25455,7 +25455,7 @@
         </is>
       </c>
       <c r="AC228" t="n">
-        <v>49.38756836309988</v>
+        <v>49.38756836309987</v>
       </c>
       <c r="AD228" t="inlineStr">
         <is>
@@ -25992,7 +25992,7 @@
         </is>
       </c>
       <c r="AC233" t="n">
-        <v>44.90587499686569</v>
+        <v>44.9058749968657</v>
       </c>
       <c r="AD233" t="inlineStr">
         <is>
@@ -26101,7 +26101,7 @@
         </is>
       </c>
       <c r="AC234" t="n">
-        <v>45.59948147549512</v>
+        <v>45.5994814754951</v>
       </c>
       <c r="AD234" t="inlineStr">
         <is>
@@ -26319,7 +26319,7 @@
         </is>
       </c>
       <c r="AC236" t="n">
-        <v>47.77434230850001</v>
+        <v>47.7743423085</v>
       </c>
       <c r="AD236" t="inlineStr">
         <is>
@@ -26428,7 +26428,7 @@
         </is>
       </c>
       <c r="AC237" t="n">
-        <v>48.9474631108791</v>
+        <v>48.94746311087911</v>
       </c>
       <c r="AD237" t="inlineStr">
         <is>
@@ -26843,7 +26843,7 @@
         </is>
       </c>
       <c r="AC241" t="n">
-        <v>49.67715212603139</v>
+        <v>49.67715212603137</v>
       </c>
       <c r="AD241" t="inlineStr">
         <is>
@@ -27481,7 +27481,7 @@
         </is>
       </c>
       <c r="AC247" t="n">
-        <v>23.42308295158829</v>
+        <v>23.4230829515883</v>
       </c>
       <c r="AD247" t="inlineStr">
         <is>
@@ -27777,7 +27777,7 @@
         </is>
       </c>
       <c r="AC250" t="n">
-        <v>38.70278275048758</v>
+        <v>38.70278275048757</v>
       </c>
       <c r="AD250" t="inlineStr">
         <is>
@@ -27968,7 +27968,7 @@
         </is>
       </c>
       <c r="AC252" t="n">
-        <v>41.80344952411276</v>
+        <v>41.80344952411277</v>
       </c>
       <c r="AD252" t="inlineStr">
         <is>
@@ -28394,7 +28394,7 @@
         </is>
       </c>
       <c r="AC256" t="n">
-        <v>49.85840889292392</v>
+        <v>49.85840889292393</v>
       </c>
       <c r="AD256" t="inlineStr">
         <is>
@@ -28920,7 +28920,7 @@
         </is>
       </c>
       <c r="AC261" t="n">
-        <v>38.82183150703956</v>
+        <v>38.82183150703955</v>
       </c>
       <c r="AD261" t="inlineStr">
         <is>
@@ -29363,7 +29363,7 @@
         </is>
       </c>
       <c r="AC265" t="n">
-        <v>31.70399233689045</v>
+        <v>31.70399233689044</v>
       </c>
       <c r="AD265" t="inlineStr">
         <is>
@@ -29472,7 +29472,7 @@
         </is>
       </c>
       <c r="AC266" t="n">
-        <v>44.42326960281488</v>
+        <v>44.42326960281487</v>
       </c>
       <c r="AD266" t="inlineStr">
         <is>
@@ -29586,7 +29586,7 @@
         </is>
       </c>
       <c r="AC267" t="n">
-        <v>33.43573905652015</v>
+        <v>33.43573905652014</v>
       </c>
       <c r="AD267" t="inlineStr">
         <is>
@@ -29695,7 +29695,7 @@
         </is>
       </c>
       <c r="AC268" t="n">
-        <v>45.18455781418142</v>
+        <v>45.18455781418143</v>
       </c>
       <c r="AD268" t="inlineStr">
         <is>
@@ -29804,7 +29804,7 @@
         </is>
       </c>
       <c r="AC269" t="n">
-        <v>33.92840645115611</v>
+        <v>33.92840645115612</v>
       </c>
       <c r="AD269" t="inlineStr">
         <is>
